--- a/SAP/Entrega/TFI Nicolas Rubino - CareMonitor - Primer Entrega.xlsx
+++ b/SAP/Entrega/TFI Nicolas Rubino - CareMonitor - Primer Entrega.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico\Documents\GitHub\CareMonitor-NicolasRubino\SAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico\Documents\UAI\TFI\CareMonitor\CareMonitor\SAP\Entrega\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB8782C-5A2D-4767-A3B8-3EF71EFF415C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="986"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="986" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portada" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet name="Costos fijos" sheetId="22" r:id="rId6"/>
     <sheet name="Costos variables" sheetId="27" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -65,12 +66,6 @@
   </si>
   <si>
     <t>Lista de precios</t>
-  </si>
-  <si>
-    <t>PROFUNDIDAD DE LAS LÍNEAS DE PRODUCTOS</t>
-  </si>
-  <si>
-    <t>Líneas de productos</t>
   </si>
   <si>
     <t>Producto</t>
@@ -419,54 +414,6 @@
     <t>Costo Total Mensual</t>
   </si>
   <si>
-    <r>
-      <t>El objetivo estratégico de nuestro emprendimiento es el de alcanzar el 4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de penetración del mercado meta </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>en un horizonte temporal de 3 años.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>Ingresos 2022</t>
   </si>
   <si>
@@ -537,26 +484,80 @@
       <t xml:space="preserve"> Dr. Scali, Jorge - Ing. Parkinson, Christian</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>El objetivo estratégico de nuestro emprendimiento es el de alcanzar el 10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de penetración del mercado meta </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>en un horizonte temporal de 3 años.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Líneas de servicios</t>
+  </si>
+  <si>
+    <t>PROFUNDIDAD DE LAS LÍNEAS DE SERVICIOS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="14">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="General_)"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="170" formatCode="&quot;$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="172" formatCode="_ &quot;$&quot;\ * #,##0.00_ ;_ &quot;$&quot;\ * \-#,##0.00_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="174" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ "/>
-    <numFmt numFmtId="175" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="[$$-2C0A]\ #,##0.00"/>
-    <numFmt numFmtId="177" formatCode="[$$-2C0A]\ #,##0"/>
-    <numFmt numFmtId="178" formatCode="0_ ;\-0\ "/>
-    <numFmt numFmtId="179" formatCode="_-[$$-2C0A]\ * #,##0.00_-;\-[$$-2C0A]\ * #,##0.00_-;_-[$$-2C0A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="General_)"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="170" formatCode="_ &quot;$&quot;\ * #,##0.00_ ;_ &quot;$&quot;\ * \-#,##0.00_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="171" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ "/>
+    <numFmt numFmtId="172" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="[$$-2C0A]\ #,##0.00"/>
+    <numFmt numFmtId="174" formatCode="[$$-2C0A]\ #,##0"/>
+    <numFmt numFmtId="175" formatCode="0_ ;\-0\ "/>
+    <numFmt numFmtId="176" formatCode="_-[$$-2C0A]\ * #,##0.00_-;\-[$$-2C0A]\ * #,##0.00_-;_-[$$-2C0A]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="34" x14ac:knownFonts="1">
     <font>
@@ -2084,16 +2085,16 @@
   <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2104,13 +2105,13 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="175" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="172" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="371">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2135,18 +2136,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2154,13 +2155,13 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2182,7 +2183,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2191,7 +2192,7 @@
     <xf numFmtId="165" fontId="0" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2204,7 +2205,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2216,7 +2217,7 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2276,10 +2277,10 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="77" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="19" fillId="9" borderId="79" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2306,10 +2307,10 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2325,7 +2326,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2335,8 +2336,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="48" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2348,13 +2349,13 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="48" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="5" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="6" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="3" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2382,7 +2383,7 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="18" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2391,22 +2392,22 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="25" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="25" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="25" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2418,7 +2419,7 @@
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="91" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="91" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2427,12 +2428,12 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="10" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="2" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2441,22 +2442,22 @@
     <xf numFmtId="1" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="5" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="42" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2468,7 +2469,7 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="39" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="5" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="54" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2483,10 +2484,10 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="92" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="6" borderId="28" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="6" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2495,13 +2496,13 @@
     <xf numFmtId="1" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="3" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="47" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="3" borderId="47" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="47" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2519,16 +2520,16 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="6" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="3" borderId="25" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2537,7 +2538,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2546,13 +2547,13 @@
     <xf numFmtId="165" fontId="0" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="4" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2567,7 +2568,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="6" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2576,7 +2577,7 @@
     <xf numFmtId="1" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="3" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2585,19 +2586,19 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="52" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="5" borderId="52" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="57" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="5" borderId="57" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2615,10 +2616,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="25" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2643,13 +2644,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
@@ -2671,16 +2672,16 @@
     <xf numFmtId="0" fontId="26" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2690,33 +2691,33 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="8" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2732,9 +2733,78 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="11" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="11" fillId="10" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="26" fillId="9" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="26" fillId="9" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="3" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2828,65 +2898,68 @@
     <xf numFmtId="0" fontId="21" fillId="8" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="6" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="3" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="11" fillId="3" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2903,16 +2976,16 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2936,83 +3009,38 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="20" fillId="4" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3022,6 +3050,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3050,13 +3087,13 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3092,70 +3129,34 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="20" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="26">
-    <cellStyle name="Euro" xfId="11"/>
+    <cellStyle name="Euro" xfId="11" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
-    <cellStyle name="Hipervínculo 2" xfId="14"/>
-    <cellStyle name="Hipervínculo 3" xfId="17"/>
-    <cellStyle name="Hipervínculo 4" xfId="16"/>
-    <cellStyle name="Hipervínculo 5" xfId="20"/>
-    <cellStyle name="Hyperlink 2" xfId="12"/>
+    <cellStyle name="Hipervínculo 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hipervínculo 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Hipervínculo 4" xfId="16" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Hipervínculo 5" xfId="20" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Moneda" xfId="6" builtinId="4"/>
-    <cellStyle name="Moneda 2" xfId="10"/>
-    <cellStyle name="Moneda 2 2" xfId="23"/>
-    <cellStyle name="Moneda 3" xfId="19"/>
-    <cellStyle name="Moneda 3 2" xfId="25"/>
-    <cellStyle name="Moneda 4" xfId="22"/>
-    <cellStyle name="Moneda 5" xfId="8"/>
+    <cellStyle name="Moneda 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Moneda 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Moneda 3" xfId="19" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Moneda 3 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Moneda 4" xfId="22" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Moneda 5" xfId="8" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="13"/>
-    <cellStyle name="Normal 2 14" xfId="4"/>
-    <cellStyle name="Normal 2 15" xfId="5"/>
-    <cellStyle name="Normal 3" xfId="18"/>
-    <cellStyle name="Normal 4" xfId="9"/>
-    <cellStyle name="Normal 5" xfId="21"/>
-    <cellStyle name="Normal 6" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 2 14" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 2 15" xfId="5" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Normal 5" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal 6" xfId="7" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
-    <cellStyle name="Porcentaje 2" xfId="15"/>
-    <cellStyle name="Porcentaje 3" xfId="24"/>
+    <cellStyle name="Porcentaje 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Porcentaje 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -3182,7 +3183,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -3268,7 +3269,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3574,7 +3575,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="91798656"/>
@@ -3619,7 +3620,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="25175760"/>
@@ -3661,7 +3662,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3691,7 +3692,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3750,7 +3751,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3768,7 +3769,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ingresos 2022</c:v>
+                  <c:v> Ingresos 2022 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4112,7 +4113,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -4136,7 +4136,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -4147,9 +4147,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-EA85-40A9-9793-B381DA40BF8B}"/>
                 </c:ext>
@@ -4186,7 +4184,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -4199,9 +4197,7 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-EA85-40A9-9793-B381DA40BF8B}"/>
                 </c:ext>
@@ -4209,7 +4205,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -4233,7 +4228,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -4244,9 +4239,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-EA85-40A9-9793-B381DA40BF8B}"/>
                 </c:ext>
@@ -4283,7 +4276,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -4333,7 +4326,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -4375,7 +4368,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -4398,13 +4391,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>InitialCare</c:v>
+                  <c:v> InitialCare </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MediumCare</c:v>
+                  <c:v> MediumCare </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FullCare</c:v>
+                  <c:v> FullCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4455,7 +4448,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4463,6 +4455,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4486,7 +4479,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4537,7 +4530,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4563,7 +4555,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5526,7 +5518,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="283847231"/>
@@ -5585,7 +5577,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="281132207"/>
@@ -5602,7 +5594,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5628,7 +5619,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5658,7 +5649,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5714,7 +5705,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5740,7 +5730,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5769,7 +5759,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>InitialCare</c:v>
+                  <c:v> InitialCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5822,7 +5812,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -5835,7 +5825,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5914,7 +5903,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MediumCare</c:v>
+                  <c:v> MediumCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5976,7 +5965,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -5989,7 +5978,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6068,7 +6056,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FullCare</c:v>
+                  <c:v> FullCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6121,7 +6109,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -6134,7 +6122,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6258,7 +6245,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="258788111"/>
@@ -6293,7 +6280,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -6324,13 +6310,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6338,6 +6323,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -6377,7 +6363,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6428,7 +6414,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6454,7 +6439,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7417,7 +7402,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="283847231"/>
@@ -7476,7 +7461,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="281132207"/>
@@ -7493,7 +7478,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7519,7 +7503,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7549,7 +7533,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7638,7 +7622,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7667,7 +7651,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>InitialCare</c:v>
+                  <c:v> InitialCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7720,7 +7704,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -7733,7 +7717,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7812,7 +7795,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MediumCare</c:v>
+                  <c:v> MediumCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7874,7 +7857,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -7887,7 +7870,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7966,7 +7948,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FullCare</c:v>
+                  <c:v> FullCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8019,7 +8001,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -8032,7 +8014,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8156,7 +8137,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="258788111"/>
@@ -8191,7 +8172,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -8222,13 +8202,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -8236,6 +8215,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -8275,7 +8255,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8326,7 +8306,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8352,7 +8331,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9315,7 +9294,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="283847231"/>
@@ -9374,7 +9353,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="281132207"/>
@@ -9391,7 +9370,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9417,7 +9395,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9447,7 +9425,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9536,7 +9514,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9565,7 +9543,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>InitialCare</c:v>
+                  <c:v> InitialCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9618,7 +9596,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -9631,7 +9609,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9710,7 +9687,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MediumCare</c:v>
+                  <c:v> MediumCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9772,7 +9749,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -9785,7 +9762,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9864,7 +9840,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FullCare</c:v>
+                  <c:v> FullCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9917,7 +9893,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -9930,7 +9906,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10054,7 +10029,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="258788111"/>
@@ -10089,7 +10064,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -10120,13 +10094,12 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -10134,6 +10107,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -10173,7 +10147,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10232,7 +10206,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10250,7 +10224,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ingresos 2020</c:v>
+                  <c:v> Ingresos 2020 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10362,7 +10336,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -10411,7 +10385,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="bestFit"/>
@@ -10422,9 +10396,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-61DD-4CD8-B158-0B704BE81697}"/>
                 </c:ext>
@@ -10455,7 +10427,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -10494,7 +10466,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -10515,13 +10487,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>InitialCare</c:v>
+                  <c:v> InitialCare </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MediumCare</c:v>
+                  <c:v> MediumCare </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FullCare</c:v>
+                  <c:v> FullCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10572,7 +10544,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -10580,6 +10551,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10603,7 +10575,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10662,7 +10634,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10680,7 +10652,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ingresos 2021</c:v>
+                  <c:v> Ingresos 2021 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11024,7 +10996,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -11048,7 +11019,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -11059,9 +11030,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-8374-4368-97F6-BBDA83FD1D3E}"/>
                 </c:ext>
@@ -11069,7 +11038,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -11093,7 +11061,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -11104,9 +11072,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-8374-4368-97F6-BBDA83FD1D3E}"/>
                 </c:ext>
@@ -11114,7 +11080,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -11138,7 +11103,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -11149,9 +11114,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-8374-4368-97F6-BBDA83FD1D3E}"/>
                 </c:ext>
@@ -11182,7 +11145,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -11224,7 +11187,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-ES"/>
                 </a:p>
               </c:txPr>
               <c:dLblPos val="outEnd"/>
@@ -11264,7 +11227,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -11287,13 +11250,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>InitialCare</c:v>
+                  <c:v> InitialCare </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>MediumCare</c:v>
+                  <c:v> MediumCare </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FullCare</c:v>
+                  <c:v> FullCare </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11344,7 +11307,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -11352,6 +11314,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -11375,7 +11338,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -17069,14 +17032,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:colOff>545306</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>747236</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -17105,8 +17068,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="628650" y="390525"/>
-          <a:ext cx="5612130" cy="946785"/>
+          <a:off x="545306" y="200025"/>
+          <a:ext cx="5607368" cy="946785"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17620,7 +17583,7 @@
         <xdr:cNvPr id="7" name="Gráfico 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{665173AD-B570-46BA-80BC-82B15A915FC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17658,7 +17621,7 @@
         <xdr:cNvPr id="16" name="Gráfico 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C85DCBDB-93E3-4DD5-AE09-EA8FBD090003}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17696,7 +17659,7 @@
         <xdr:cNvPr id="8" name="Gráfico 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E866F97C-24A1-4CB1-89CC-D4B2D1552ED0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17734,7 +17697,7 @@
         <xdr:cNvPr id="10" name="Gráfico 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E78E219A-C388-419E-8BF8-1E913E795735}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18028,7 +17991,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78BBF038-4D24-4A20-B5EA-F077427045B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18155,7 +18118,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78BBF038-4D24-4A20-B5EA-F077427045B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18489,12 +18452,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="C9:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18511,37 +18474,37 @@
     </row>
     <row r="31" spans="3:3" ht="18" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="3:3" ht="18" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="3:3" ht="18" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="3:3" ht="18" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="3:3" ht="18" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="3:3" ht="18" x14ac:dyDescent="0.25">
       <c r="C36" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C36" r:id="rId1" display="mailto:cristiangentile1@gmail.com"/>
+    <hyperlink ref="C36" r:id="rId1" display="mailto:cristiangentile1@gmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -18550,7 +18513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:BT59"/>
   <sheetViews>
@@ -18645,7 +18608,7 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="25"/>
-      <c r="D2" s="370" t="s">
+      <c r="D2" s="245" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1"/>
@@ -18795,7 +18758,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="25"/>
-      <c r="D4" s="367" t="s">
+      <c r="D4" s="242" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="1"/>
@@ -18871,7 +18834,7 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="25"/>
-      <c r="D5" s="368" t="s">
+      <c r="D5" s="243" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="1"/>
@@ -18947,7 +18910,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="25"/>
-      <c r="D6" s="368" t="s">
+      <c r="D6" s="243" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="1"/>
@@ -19023,7 +18986,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="25"/>
-      <c r="D7" s="368" t="s">
+      <c r="D7" s="243" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="1"/>
@@ -19099,7 +19062,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="25"/>
-      <c r="D8" s="369" t="s">
+      <c r="D8" s="244" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="1"/>
@@ -19175,7 +19138,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="25"/>
-      <c r="D9" s="366"/>
+      <c r="D9" s="241"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -19249,7 +19212,7 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="25"/>
-      <c r="D10" s="366"/>
+      <c r="D10" s="241"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -19323,7 +19286,7 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="25"/>
-      <c r="D11" s="366"/>
+      <c r="D11" s="241"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -19397,7 +19360,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="25"/>
-      <c r="D12" s="366"/>
+      <c r="D12" s="241"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -19471,7 +19434,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="25"/>
-      <c r="D13" s="366"/>
+      <c r="D13" s="241"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -19545,7 +19508,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="366"/>
+      <c r="D14" s="241"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -19619,7 +19582,7 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="366"/>
+      <c r="D15" s="241"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -19693,7 +19656,7 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="366"/>
+      <c r="D16" s="241"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -19767,7 +19730,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="366"/>
+      <c r="D17" s="241"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -19841,7 +19804,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="366"/>
+      <c r="D18" s="241"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -22947,11 +22910,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" location="Hipótesis!A1" display="Hipótesis"/>
-    <hyperlink ref="D5" location="'Proy. Ventas'!A1" display="Proyección de ventas"/>
-    <hyperlink ref="D6" location="'Mod. Ingresos'!A1" display="Modelo de ingresos"/>
-    <hyperlink ref="D7" location="'Costos Fijos'!A1" display="Estructura de costos fijos"/>
-    <hyperlink ref="D8" location="'Costos Variables'!A1" display="Estructura de costos variables"/>
+    <hyperlink ref="D4" location="Hipótesis!A1" display="Hipótesis" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D5" location="'Proy. Ventas'!A1" display="Proyección de ventas" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D6" location="'Mod. Ingresos'!A1" display="Modelo de ingresos" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D7" location="'Costos Fijos'!A1" display="Estructura de costos fijos" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D8" location="'Costos Variables'!A1" display="Estructura de costos variables" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -22959,13 +22922,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22996,58 +22959,58 @@
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="244" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="245"/>
-      <c r="D3" s="245"/>
-      <c r="E3" s="245"/>
-      <c r="F3" s="245"/>
-      <c r="G3" s="245"/>
-      <c r="H3" s="245"/>
-      <c r="I3" s="245"/>
-      <c r="J3" s="246"/>
+      <c r="B3" s="267" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="268"/>
+      <c r="D3" s="268"/>
+      <c r="E3" s="268"/>
+      <c r="F3" s="268"/>
+      <c r="G3" s="268"/>
+      <c r="H3" s="268"/>
+      <c r="I3" s="268"/>
+      <c r="J3" s="269"/>
     </row>
     <row r="4" spans="1:11" ht="165" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="253" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="254"/>
-      <c r="D4" s="254"/>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="254"/>
-      <c r="I4" s="254"/>
-      <c r="J4" s="255"/>
+      <c r="B4" s="276" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="277"/>
+      <c r="D4" s="277"/>
+      <c r="E4" s="277"/>
+      <c r="F4" s="277"/>
+      <c r="G4" s="277"/>
+      <c r="H4" s="277"/>
+      <c r="I4" s="277"/>
+      <c r="J4" s="278"/>
       <c r="K4" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="256" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="257"/>
-      <c r="D7" s="257"/>
-      <c r="E7" s="257"/>
-      <c r="F7" s="257"/>
-      <c r="G7" s="257"/>
-      <c r="H7" s="257"/>
-      <c r="I7" s="257"/>
-      <c r="J7" s="258"/>
+      <c r="B7" s="279" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="280"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="280"/>
+      <c r="G7" s="280"/>
+      <c r="H7" s="280"/>
+      <c r="I7" s="280"/>
+      <c r="J7" s="281"/>
     </row>
     <row r="8" spans="1:11" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="259" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="260"/>
-      <c r="D8" s="260"/>
-      <c r="E8" s="260"/>
-      <c r="F8" s="260"/>
-      <c r="G8" s="260"/>
-      <c r="H8" s="260"/>
-      <c r="I8" s="260"/>
-      <c r="J8" s="261"/>
+      <c r="B8" s="282" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="283"/>
+      <c r="D8" s="283"/>
+      <c r="E8" s="283"/>
+      <c r="F8" s="283"/>
+      <c r="G8" s="283"/>
+      <c r="H8" s="283"/>
+      <c r="I8" s="283"/>
+      <c r="J8" s="284"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B9" s="41"/>
@@ -23073,13 +23036,13 @@
     </row>
     <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B11" s="66" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11" s="67" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="68" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
@@ -23119,30 +23082,30 @@
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="262" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="263"/>
-      <c r="D15" s="263"/>
-      <c r="E15" s="263"/>
-      <c r="F15" s="263"/>
-      <c r="G15" s="263"/>
-      <c r="H15" s="263"/>
-      <c r="I15" s="263"/>
-      <c r="J15" s="264"/>
+      <c r="B15" s="285" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="286"/>
+      <c r="D15" s="286"/>
+      <c r="E15" s="286"/>
+      <c r="F15" s="286"/>
+      <c r="G15" s="286"/>
+      <c r="H15" s="286"/>
+      <c r="I15" s="286"/>
+      <c r="J15" s="287"/>
     </row>
     <row r="16" spans="1:11" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="265" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="266"/>
-      <c r="D16" s="266"/>
-      <c r="E16" s="266"/>
-      <c r="F16" s="266"/>
-      <c r="G16" s="266"/>
-      <c r="H16" s="266"/>
-      <c r="I16" s="266"/>
-      <c r="J16" s="267"/>
+      <c r="B16" s="288" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="289"/>
+      <c r="D16" s="289"/>
+      <c r="E16" s="289"/>
+      <c r="F16" s="289"/>
+      <c r="G16" s="289"/>
+      <c r="H16" s="289"/>
+      <c r="I16" s="289"/>
+      <c r="J16" s="290"/>
     </row>
     <row r="17" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
@@ -23212,11 +23175,11 @@
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="247" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="248"/>
-      <c r="D22" s="249"/>
+      <c r="B22" s="270" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="271"/>
+      <c r="D22" s="272"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -23230,10 +23193,10 @@
     </row>
     <row r="23" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="63" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C23" s="64" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D23" s="65" t="s">
         <v>7</v>
@@ -23405,13 +23368,13 @@
       <c r="N32" s="6"/>
     </row>
     <row r="33" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="244" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="245"/>
-      <c r="D33" s="245"/>
-      <c r="E33" s="245"/>
-      <c r="F33" s="246"/>
+      <c r="B33" s="267" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="268"/>
+      <c r="D33" s="268"/>
+      <c r="E33" s="268"/>
+      <c r="F33" s="269"/>
       <c r="H33" s="30"/>
       <c r="I33" s="30"/>
       <c r="J33" s="30"/>
@@ -23437,156 +23400,150 @@
       <c r="N34" s="30"/>
     </row>
     <row r="35" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="244" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="268"/>
-      <c r="D35" s="268"/>
-      <c r="E35" s="268"/>
-      <c r="F35" s="269"/>
+      <c r="B35" s="267" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="291"/>
+      <c r="D35" s="291"/>
+      <c r="E35" s="291"/>
+      <c r="F35" s="292"/>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="250" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="270" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="270"/>
-      <c r="E36" s="270"/>
-      <c r="F36" s="270"/>
+      <c r="B36" s="273" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="293" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="293"/>
+      <c r="E36" s="293"/>
+      <c r="F36" s="293"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="251"/>
-      <c r="C37" s="270"/>
-      <c r="D37" s="270"/>
-      <c r="E37" s="270"/>
-      <c r="F37" s="270"/>
+      <c r="B37" s="274"/>
+      <c r="C37" s="293"/>
+      <c r="D37" s="293"/>
+      <c r="E37" s="293"/>
+      <c r="F37" s="293"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="251"/>
-      <c r="C38" s="270"/>
-      <c r="D38" s="270"/>
-      <c r="E38" s="270"/>
-      <c r="F38" s="270"/>
+      <c r="B38" s="274"/>
+      <c r="C38" s="293"/>
+      <c r="D38" s="293"/>
+      <c r="E38" s="293"/>
+      <c r="F38" s="293"/>
     </row>
     <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="251"/>
-      <c r="C39" s="240" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="240"/>
-      <c r="E39" s="240"/>
-      <c r="F39" s="240"/>
+      <c r="B39" s="274"/>
+      <c r="C39" s="263" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="263"/>
+      <c r="E39" s="263"/>
+      <c r="F39" s="263"/>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="251"/>
-      <c r="C40" s="240"/>
-      <c r="D40" s="240"/>
-      <c r="E40" s="240"/>
-      <c r="F40" s="240"/>
+      <c r="B40" s="274"/>
+      <c r="C40" s="263"/>
+      <c r="D40" s="263"/>
+      <c r="E40" s="263"/>
+      <c r="F40" s="263"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="251"/>
-      <c r="C41" s="240"/>
-      <c r="D41" s="240"/>
-      <c r="E41" s="240"/>
-      <c r="F41" s="240"/>
+      <c r="B41" s="274"/>
+      <c r="C41" s="263"/>
+      <c r="D41" s="263"/>
+      <c r="E41" s="263"/>
+      <c r="F41" s="263"/>
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="251"/>
-      <c r="C42" s="241" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" s="241"/>
-      <c r="E42" s="241"/>
-      <c r="F42" s="241"/>
+      <c r="B42" s="274"/>
+      <c r="C42" s="264" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="264"/>
+      <c r="E42" s="264"/>
+      <c r="F42" s="264"/>
     </row>
     <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="251"/>
-      <c r="C43" s="241"/>
-      <c r="D43" s="241"/>
-      <c r="E43" s="241"/>
-      <c r="F43" s="241"/>
+      <c r="B43" s="274"/>
+      <c r="C43" s="264"/>
+      <c r="D43" s="264"/>
+      <c r="E43" s="264"/>
+      <c r="F43" s="264"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="252"/>
-      <c r="C44" s="241"/>
-      <c r="D44" s="241"/>
-      <c r="E44" s="241"/>
-      <c r="F44" s="241"/>
+      <c r="B44" s="275"/>
+      <c r="C44" s="264"/>
+      <c r="D44" s="264"/>
+      <c r="E44" s="264"/>
+      <c r="F44" s="264"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="242" t="s">
+      <c r="B47" s="265" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="243"/>
+      <c r="C47" s="266"/>
     </row>
     <row r="48" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="72" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C48" s="73" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="271" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="280">
+      <c r="B49" s="246" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="255">
         <v>1300</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="272"/>
-      <c r="C50" s="280"/>
+      <c r="B50" s="247"/>
+      <c r="C50" s="255"/>
     </row>
     <row r="51" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="273"/>
-      <c r="C51" s="281"/>
+      <c r="B51" s="248"/>
+      <c r="C51" s="256"/>
     </row>
     <row r="52" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="274" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" s="282">
+      <c r="B52" s="249" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="257">
         <v>2500</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="275"/>
-      <c r="C53" s="283"/>
+      <c r="B53" s="250"/>
+      <c r="C53" s="258"/>
     </row>
     <row r="54" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="276"/>
-      <c r="C54" s="284"/>
+      <c r="B54" s="251"/>
+      <c r="C54" s="259"/>
     </row>
     <row r="55" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="277" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55" s="285">
+      <c r="B55" s="252" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="260">
         <v>4000</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="278"/>
-      <c r="C56" s="286"/>
+      <c r="B56" s="253"/>
+      <c r="C56" s="261"/>
     </row>
     <row r="57" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="279"/>
-      <c r="C57" s="287"/>
+      <c r="B57" s="254"/>
+      <c r="C57" s="262"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="C55:C57"/>
     <mergeCell ref="C39:F41"/>
     <mergeCell ref="C42:F44"/>
     <mergeCell ref="B47:C47"/>
@@ -23601,6 +23558,12 @@
     <mergeCell ref="B35:F35"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="C36:F38"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="C55:C57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -23609,11 +23572,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BI155"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
@@ -23736,18 +23699,18 @@
     </row>
     <row r="5" spans="1:61" s="25" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="9"/>
-      <c r="B5" s="303" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="304"/>
-      <c r="D5" s="306"/>
+      <c r="B5" s="327" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="328"/>
+      <c r="D5" s="330"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="362" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="363"/>
-      <c r="H5" s="363"/>
-      <c r="I5" s="364"/>
+      <c r="F5" s="300" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="301"/>
+      <c r="H5" s="301"/>
+      <c r="I5" s="302"/>
       <c r="J5" s="43"/>
       <c r="K5" s="43"/>
       <c r="L5" s="43"/>
@@ -23793,16 +23756,16 @@
         <v>2022</v>
       </c>
       <c r="E6" s="42"/>
-      <c r="F6" s="322" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="323"/>
-      <c r="H6" s="323"/>
-      <c r="I6" s="324"/>
-      <c r="J6" s="365"/>
-      <c r="K6" s="365"/>
-      <c r="L6" s="365"/>
-      <c r="M6" s="365"/>
+      <c r="F6" s="294" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="295"/>
+      <c r="H6" s="295"/>
+      <c r="I6" s="296"/>
+      <c r="J6" s="240"/>
+      <c r="K6" s="240"/>
+      <c r="L6" s="240"/>
+      <c r="M6" s="240"/>
       <c r="Q6" s="123"/>
       <c r="R6" s="24"/>
       <c r="S6" s="24"/>
@@ -23847,14 +23810,14 @@
         <v>0.1</v>
       </c>
       <c r="E7" s="46"/>
-      <c r="F7" s="325"/>
-      <c r="G7" s="326"/>
-      <c r="H7" s="326"/>
-      <c r="I7" s="327"/>
-      <c r="J7" s="365"/>
-      <c r="K7" s="365"/>
-      <c r="L7" s="365"/>
-      <c r="M7" s="365"/>
+      <c r="F7" s="297"/>
+      <c r="G7" s="298"/>
+      <c r="H7" s="298"/>
+      <c r="I7" s="299"/>
+      <c r="J7" s="240"/>
+      <c r="K7" s="240"/>
+      <c r="L7" s="240"/>
+      <c r="M7" s="240"/>
       <c r="Q7" s="123"/>
       <c r="R7" s="24"/>
       <c r="S7" s="24"/>
@@ -23987,7 +23950,7 @@
     </row>
     <row r="10" spans="1:61" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -24251,48 +24214,48 @@
       <c r="BI14" s="8"/>
     </row>
     <row r="15" spans="1:61" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="303" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="304"/>
-      <c r="C15" s="304"/>
-      <c r="D15" s="304"/>
-      <c r="E15" s="304"/>
-      <c r="F15" s="304"/>
-      <c r="G15" s="304"/>
-      <c r="H15" s="305"/>
-      <c r="I15" s="305"/>
-      <c r="J15" s="305"/>
-      <c r="K15" s="305"/>
-      <c r="L15" s="304"/>
-      <c r="M15" s="304"/>
-      <c r="N15" s="304"/>
-      <c r="O15" s="304"/>
-      <c r="P15" s="304"/>
-      <c r="Q15" s="304"/>
-      <c r="R15" s="304"/>
-      <c r="S15" s="304"/>
-      <c r="T15" s="304"/>
-      <c r="U15" s="304"/>
-      <c r="V15" s="304"/>
-      <c r="W15" s="304"/>
-      <c r="X15" s="304"/>
-      <c r="Y15" s="304"/>
-      <c r="Z15" s="304"/>
-      <c r="AA15" s="304"/>
-      <c r="AB15" s="304"/>
-      <c r="AC15" s="304"/>
-      <c r="AD15" s="304"/>
-      <c r="AE15" s="304"/>
-      <c r="AF15" s="304"/>
-      <c r="AG15" s="304"/>
-      <c r="AH15" s="304"/>
-      <c r="AI15" s="304"/>
-      <c r="AJ15" s="304"/>
-      <c r="AK15" s="304"/>
-      <c r="AL15" s="304"/>
-      <c r="AM15" s="304"/>
-      <c r="AN15" s="306"/>
+      <c r="A15" s="327" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="328"/>
+      <c r="C15" s="328"/>
+      <c r="D15" s="328"/>
+      <c r="E15" s="328"/>
+      <c r="F15" s="328"/>
+      <c r="G15" s="328"/>
+      <c r="H15" s="329"/>
+      <c r="I15" s="329"/>
+      <c r="J15" s="329"/>
+      <c r="K15" s="329"/>
+      <c r="L15" s="328"/>
+      <c r="M15" s="328"/>
+      <c r="N15" s="328"/>
+      <c r="O15" s="328"/>
+      <c r="P15" s="328"/>
+      <c r="Q15" s="328"/>
+      <c r="R15" s="328"/>
+      <c r="S15" s="328"/>
+      <c r="T15" s="328"/>
+      <c r="U15" s="328"/>
+      <c r="V15" s="328"/>
+      <c r="W15" s="328"/>
+      <c r="X15" s="328"/>
+      <c r="Y15" s="328"/>
+      <c r="Z15" s="328"/>
+      <c r="AA15" s="328"/>
+      <c r="AB15" s="328"/>
+      <c r="AC15" s="328"/>
+      <c r="AD15" s="328"/>
+      <c r="AE15" s="328"/>
+      <c r="AF15" s="328"/>
+      <c r="AG15" s="328"/>
+      <c r="AH15" s="328"/>
+      <c r="AI15" s="328"/>
+      <c r="AJ15" s="328"/>
+      <c r="AK15" s="328"/>
+      <c r="AL15" s="328"/>
+      <c r="AM15" s="328"/>
+      <c r="AN15" s="330"/>
       <c r="AO15" s="8"/>
       <c r="AP15" s="8"/>
       <c r="AQ15" s="8"/>
@@ -24316,76 +24279,76 @@
       <c r="BI15" s="8"/>
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A16" s="307" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="307" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="310" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="311"/>
-      <c r="E16" s="293" t="s">
+      <c r="A16" s="331" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="331" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="334" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="335"/>
+      <c r="E16" s="317" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="318"/>
+      <c r="G16" s="319"/>
+      <c r="H16" s="317" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="318"/>
+      <c r="J16" s="319"/>
+      <c r="K16" s="317" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="294"/>
-      <c r="G16" s="295"/>
-      <c r="H16" s="293" t="s">
+      <c r="L16" s="318"/>
+      <c r="M16" s="319"/>
+      <c r="N16" s="317" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="294"/>
-      <c r="J16" s="295"/>
-      <c r="K16" s="293" t="s">
+      <c r="O16" s="318"/>
+      <c r="P16" s="319"/>
+      <c r="Q16" s="317" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="294"/>
-      <c r="M16" s="295"/>
-      <c r="N16" s="293" t="s">
+      <c r="R16" s="318"/>
+      <c r="S16" s="319"/>
+      <c r="T16" s="317" t="s">
         <v>21</v>
       </c>
-      <c r="O16" s="294"/>
-      <c r="P16" s="295"/>
-      <c r="Q16" s="293" t="s">
+      <c r="U16" s="318"/>
+      <c r="V16" s="319"/>
+      <c r="W16" s="317" t="s">
         <v>22</v>
       </c>
-      <c r="R16" s="294"/>
-      <c r="S16" s="295"/>
-      <c r="T16" s="293" t="s">
+      <c r="X16" s="318"/>
+      <c r="Y16" s="319"/>
+      <c r="Z16" s="317" t="s">
         <v>23</v>
       </c>
-      <c r="U16" s="294"/>
-      <c r="V16" s="295"/>
-      <c r="W16" s="293" t="s">
+      <c r="AA16" s="318"/>
+      <c r="AB16" s="319"/>
+      <c r="AC16" s="317" t="s">
         <v>24</v>
       </c>
-      <c r="X16" s="294"/>
-      <c r="Y16" s="295"/>
-      <c r="Z16" s="293" t="s">
+      <c r="AD16" s="318"/>
+      <c r="AE16" s="319"/>
+      <c r="AF16" s="317" t="s">
         <v>25</v>
       </c>
-      <c r="AA16" s="294"/>
-      <c r="AB16" s="295"/>
-      <c r="AC16" s="293" t="s">
+      <c r="AG16" s="318"/>
+      <c r="AH16" s="319"/>
+      <c r="AI16" s="317" t="s">
         <v>26</v>
       </c>
-      <c r="AD16" s="294"/>
-      <c r="AE16" s="295"/>
-      <c r="AF16" s="293" t="s">
+      <c r="AJ16" s="318"/>
+      <c r="AK16" s="319"/>
+      <c r="AL16" s="317" t="s">
         <v>27</v>
       </c>
-      <c r="AG16" s="294"/>
-      <c r="AH16" s="295"/>
-      <c r="AI16" s="293" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ16" s="294"/>
-      <c r="AK16" s="295"/>
-      <c r="AL16" s="293" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM16" s="294"/>
-      <c r="AN16" s="295"/>
+      <c r="AM16" s="318"/>
+      <c r="AN16" s="319"/>
       <c r="AO16" s="8"/>
       <c r="AP16" s="8"/>
       <c r="AQ16" s="8"/>
@@ -24409,74 +24372,74 @@
       <c r="BI16" s="8"/>
     </row>
     <row r="17" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A17" s="308"/>
-      <c r="B17" s="308"/>
-      <c r="C17" s="296" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="298" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="300">
+      <c r="A17" s="332"/>
+      <c r="B17" s="332"/>
+      <c r="C17" s="320" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="322" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="324">
         <v>0.02</v>
       </c>
-      <c r="F17" s="301"/>
-      <c r="G17" s="302"/>
-      <c r="H17" s="300">
+      <c r="F17" s="325"/>
+      <c r="G17" s="326"/>
+      <c r="H17" s="324">
         <v>0.04</v>
       </c>
-      <c r="I17" s="301"/>
-      <c r="J17" s="302"/>
-      <c r="K17" s="300">
+      <c r="I17" s="325"/>
+      <c r="J17" s="326"/>
+      <c r="K17" s="324">
         <v>0.04</v>
       </c>
-      <c r="L17" s="301"/>
-      <c r="M17" s="302"/>
-      <c r="N17" s="300">
+      <c r="L17" s="325"/>
+      <c r="M17" s="326"/>
+      <c r="N17" s="324">
         <v>0.05</v>
       </c>
-      <c r="O17" s="301"/>
-      <c r="P17" s="302"/>
-      <c r="Q17" s="300">
+      <c r="O17" s="325"/>
+      <c r="P17" s="326"/>
+      <c r="Q17" s="324">
         <v>0.06</v>
       </c>
-      <c r="R17" s="301"/>
-      <c r="S17" s="302"/>
-      <c r="T17" s="300">
+      <c r="R17" s="325"/>
+      <c r="S17" s="326"/>
+      <c r="T17" s="324">
         <v>0.08</v>
       </c>
-      <c r="U17" s="301"/>
-      <c r="V17" s="302"/>
-      <c r="W17" s="300">
+      <c r="U17" s="325"/>
+      <c r="V17" s="326"/>
+      <c r="W17" s="324">
         <v>0.1</v>
       </c>
-      <c r="X17" s="301"/>
-      <c r="Y17" s="302"/>
-      <c r="Z17" s="300">
+      <c r="X17" s="325"/>
+      <c r="Y17" s="326"/>
+      <c r="Z17" s="324">
         <v>0.11</v>
       </c>
-      <c r="AA17" s="301"/>
-      <c r="AB17" s="302"/>
-      <c r="AC17" s="300">
+      <c r="AA17" s="325"/>
+      <c r="AB17" s="326"/>
+      <c r="AC17" s="324">
         <v>0.11</v>
       </c>
-      <c r="AD17" s="301"/>
-      <c r="AE17" s="302"/>
-      <c r="AF17" s="300">
+      <c r="AD17" s="325"/>
+      <c r="AE17" s="326"/>
+      <c r="AF17" s="324">
         <v>0.12</v>
       </c>
-      <c r="AG17" s="301"/>
-      <c r="AH17" s="302"/>
-      <c r="AI17" s="300">
+      <c r="AG17" s="325"/>
+      <c r="AH17" s="326"/>
+      <c r="AI17" s="324">
         <v>0.13</v>
       </c>
-      <c r="AJ17" s="301"/>
-      <c r="AK17" s="302"/>
-      <c r="AL17" s="300">
+      <c r="AJ17" s="325"/>
+      <c r="AK17" s="326"/>
+      <c r="AL17" s="324">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AM17" s="301"/>
-      <c r="AN17" s="302"/>
+      <c r="AM17" s="325"/>
+      <c r="AN17" s="326"/>
       <c r="AO17" s="8"/>
       <c r="AP17" s="8"/>
       <c r="AQ17" s="8"/>
@@ -24500,93 +24463,93 @@
       <c r="BI17" s="8"/>
     </row>
     <row r="18" spans="1:61" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="309"/>
-      <c r="B18" s="309"/>
-      <c r="C18" s="297"/>
-      <c r="D18" s="299"/>
+      <c r="A18" s="333"/>
+      <c r="B18" s="333"/>
+      <c r="C18" s="321"/>
+      <c r="D18" s="339"/>
       <c r="E18" s="121"/>
       <c r="F18" s="82" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G18" s="119" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H18" s="84"/>
       <c r="I18" s="141" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J18" s="83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K18" s="118"/>
       <c r="L18" s="82" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M18" s="83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N18" s="118"/>
       <c r="O18" s="84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P18" s="83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="118"/>
       <c r="R18" s="84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S18" s="83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T18" s="118"/>
       <c r="U18" s="84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V18" s="83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W18" s="118"/>
       <c r="X18" s="84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y18" s="83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z18" s="118"/>
       <c r="AA18" s="84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB18" s="83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC18" s="118"/>
       <c r="AD18" s="84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE18" s="83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF18" s="118"/>
       <c r="AG18" s="84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AH18" s="83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI18" s="118"/>
       <c r="AJ18" s="84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AK18" s="83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL18" s="118"/>
       <c r="AM18" s="84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN18" s="83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO18" s="8"/>
       <c r="AP18" s="8"/>
@@ -24612,7 +24575,7 @@
     </row>
     <row r="19" spans="1:61" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="95" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B19" s="92">
         <f>Hipótesis!C49</f>
@@ -24772,7 +24735,7 @@
     </row>
     <row r="20" spans="1:61" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="96" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B20" s="93">
         <f>Hipótesis!C52</f>
@@ -24932,7 +24895,7 @@
     </row>
     <row r="21" spans="1:61" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="97" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21" s="94">
         <f>Hipótesis!C55</f>
@@ -25091,10 +25054,10 @@
       </c>
     </row>
     <row r="22" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="291" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="292"/>
+      <c r="A22" s="315" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="316"/>
       <c r="C22" s="86">
         <f>SUM(C19:C21)</f>
         <v>60730</v>
@@ -26179,32 +26142,32 @@
     </row>
     <row r="51" spans="1:61" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:61" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="317" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" s="318"/>
-      <c r="C52" s="318"/>
-      <c r="D52" s="318"/>
-      <c r="E52" s="318"/>
-      <c r="F52" s="318"/>
-      <c r="G52" s="318"/>
-      <c r="H52" s="318"/>
-      <c r="I52" s="318"/>
-      <c r="J52" s="318"/>
-      <c r="K52" s="318"/>
-      <c r="L52" s="318"/>
-      <c r="M52" s="318"/>
-      <c r="N52" s="318"/>
-      <c r="O52" s="318"/>
-      <c r="P52" s="318"/>
-      <c r="Q52" s="318"/>
-      <c r="R52" s="318"/>
-      <c r="S52" s="318"/>
-      <c r="T52" s="318"/>
-      <c r="U52" s="318"/>
-      <c r="V52" s="318"/>
-      <c r="W52" s="318"/>
-      <c r="X52" s="319"/>
+      <c r="A52" s="303" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" s="304"/>
+      <c r="C52" s="304"/>
+      <c r="D52" s="304"/>
+      <c r="E52" s="304"/>
+      <c r="F52" s="304"/>
+      <c r="G52" s="304"/>
+      <c r="H52" s="304"/>
+      <c r="I52" s="304"/>
+      <c r="J52" s="304"/>
+      <c r="K52" s="304"/>
+      <c r="L52" s="304"/>
+      <c r="M52" s="304"/>
+      <c r="N52" s="304"/>
+      <c r="O52" s="304"/>
+      <c r="P52" s="304"/>
+      <c r="Q52" s="304"/>
+      <c r="R52" s="304"/>
+      <c r="S52" s="304"/>
+      <c r="T52" s="304"/>
+      <c r="U52" s="304"/>
+      <c r="V52" s="304"/>
+      <c r="W52" s="304"/>
+      <c r="X52" s="305"/>
       <c r="Y52" s="156"/>
       <c r="Z52" s="156"/>
       <c r="AA52" s="156"/>
@@ -26223,74 +26186,74 @@
       <c r="AN52" s="156"/>
     </row>
     <row r="53" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="320" t="s">
+      <c r="B53" s="336" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="337" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="338" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="312" t="s">
+      <c r="E53" s="308" t="s">
         <v>72</v>
       </c>
-      <c r="D53" s="315" t="s">
+      <c r="F53" s="337" t="s">
         <v>73</v>
       </c>
-      <c r="E53" s="314" t="s">
+      <c r="G53" s="337" t="s">
         <v>74</v>
       </c>
-      <c r="F53" s="312" t="s">
+      <c r="H53" s="337" t="s">
         <v>75</v>
       </c>
-      <c r="G53" s="312" t="s">
+      <c r="I53" s="337" t="s">
         <v>76</v>
       </c>
-      <c r="H53" s="312" t="s">
+      <c r="J53" s="337" t="s">
         <v>77</v>
       </c>
-      <c r="I53" s="312" t="s">
+      <c r="K53" s="337" t="s">
         <v>78</v>
       </c>
-      <c r="J53" s="312" t="s">
+      <c r="L53" s="337" t="s">
         <v>79</v>
       </c>
-      <c r="K53" s="312" t="s">
+      <c r="M53" s="308" t="s">
         <v>80</v>
       </c>
-      <c r="L53" s="312" t="s">
+      <c r="N53" s="308" t="s">
         <v>81</v>
       </c>
-      <c r="M53" s="314" t="s">
+      <c r="O53" s="308" t="s">
         <v>82</v>
       </c>
-      <c r="N53" s="314" t="s">
+      <c r="P53" s="308" t="s">
         <v>83</v>
       </c>
-      <c r="O53" s="314" t="s">
+      <c r="Q53" s="308" t="s">
         <v>84</v>
       </c>
-      <c r="P53" s="314" t="s">
+      <c r="R53" s="308" t="s">
         <v>85</v>
       </c>
-      <c r="Q53" s="314" t="s">
+      <c r="S53" s="337" t="s">
         <v>86</v>
       </c>
-      <c r="R53" s="314" t="s">
+      <c r="T53" s="337" t="s">
         <v>87</v>
       </c>
-      <c r="S53" s="312" t="s">
+      <c r="U53" s="308" t="s">
         <v>88</v>
       </c>
-      <c r="T53" s="312" t="s">
+      <c r="V53" s="308" t="s">
         <v>89</v>
       </c>
-      <c r="U53" s="314" t="s">
+      <c r="W53" s="337" t="s">
         <v>90</v>
       </c>
-      <c r="V53" s="314" t="s">
+      <c r="X53" s="308" t="s">
         <v>91</v>
-      </c>
-      <c r="W53" s="312" t="s">
-        <v>92</v>
-      </c>
-      <c r="X53" s="314" t="s">
-        <v>93</v>
       </c>
       <c r="Y53" s="25"/>
       <c r="Z53" s="25"/>
@@ -26310,29 +26273,29 @@
       <c r="AN53" s="199"/>
     </row>
     <row r="54" spans="1:61" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="321"/>
-      <c r="C54" s="313"/>
-      <c r="D54" s="316"/>
-      <c r="E54" s="313"/>
-      <c r="F54" s="313"/>
-      <c r="G54" s="313"/>
-      <c r="H54" s="313"/>
-      <c r="I54" s="313"/>
-      <c r="J54" s="313"/>
-      <c r="K54" s="313"/>
-      <c r="L54" s="313"/>
-      <c r="M54" s="313"/>
-      <c r="N54" s="313"/>
-      <c r="O54" s="313"/>
-      <c r="P54" s="313"/>
-      <c r="Q54" s="313"/>
-      <c r="R54" s="313"/>
-      <c r="S54" s="313"/>
-      <c r="T54" s="313"/>
-      <c r="U54" s="313"/>
-      <c r="V54" s="313"/>
-      <c r="W54" s="313"/>
-      <c r="X54" s="313"/>
+      <c r="B54" s="307"/>
+      <c r="C54" s="309"/>
+      <c r="D54" s="311"/>
+      <c r="E54" s="309"/>
+      <c r="F54" s="309"/>
+      <c r="G54" s="309"/>
+      <c r="H54" s="309"/>
+      <c r="I54" s="309"/>
+      <c r="J54" s="309"/>
+      <c r="K54" s="309"/>
+      <c r="L54" s="309"/>
+      <c r="M54" s="309"/>
+      <c r="N54" s="309"/>
+      <c r="O54" s="309"/>
+      <c r="P54" s="309"/>
+      <c r="Q54" s="309"/>
+      <c r="R54" s="309"/>
+      <c r="S54" s="309"/>
+      <c r="T54" s="309"/>
+      <c r="U54" s="309"/>
+      <c r="V54" s="309"/>
+      <c r="W54" s="309"/>
+      <c r="X54" s="309"/>
       <c r="AA54" s="25"/>
       <c r="AB54" s="25"/>
       <c r="AC54" s="201"/>
@@ -26350,7 +26313,7 @@
     </row>
     <row r="55" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="105" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B55" s="102">
         <v>80</v>
@@ -26421,9 +26384,9 @@
       <c r="X55" s="100">
         <v>160</v>
       </c>
-      <c r="Z55" s="290"/>
-      <c r="AA55" s="290"/>
-      <c r="AB55" s="290"/>
+      <c r="Z55" s="341"/>
+      <c r="AA55" s="341"/>
+      <c r="AB55" s="341"/>
       <c r="AC55" s="202"/>
       <c r="AD55" s="25"/>
       <c r="AE55" s="25"/>
@@ -26439,7 +26402,7 @@
     </row>
     <row r="56" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="105" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B56" s="112">
         <v>180000</v>
@@ -26510,9 +26473,9 @@
       <c r="X56" s="114">
         <v>70000</v>
       </c>
-      <c r="Z56" s="290"/>
-      <c r="AA56" s="290"/>
-      <c r="AB56" s="290"/>
+      <c r="Z56" s="341"/>
+      <c r="AA56" s="341"/>
+      <c r="AB56" s="341"/>
       <c r="AC56" s="201"/>
       <c r="AD56" s="25"/>
       <c r="AE56" s="25"/>
@@ -26528,7 +26491,7 @@
     </row>
     <row r="57" spans="1:61" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="106" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B57" s="103">
         <v>1</v>
@@ -26599,9 +26562,9 @@
       <c r="X57" s="101">
         <v>1</v>
       </c>
-      <c r="Z57" s="290"/>
-      <c r="AA57" s="290"/>
-      <c r="AB57" s="290"/>
+      <c r="Z57" s="341"/>
+      <c r="AA57" s="341"/>
+      <c r="AB57" s="341"/>
       <c r="AC57" s="199"/>
       <c r="AD57" s="199"/>
       <c r="AE57" s="199"/>
@@ -26617,99 +26580,99 @@
     </row>
     <row r="58" spans="1:61" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="107" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B58" s="109">
         <f>SUM(B56:AF56)</f>
         <v>1890000</v>
       </c>
-      <c r="C58" s="288"/>
-      <c r="D58" s="289"/>
-      <c r="E58" s="289"/>
-      <c r="F58" s="289"/>
-      <c r="G58" s="289"/>
-      <c r="H58" s="289"/>
-      <c r="I58" s="289"/>
-      <c r="J58" s="289"/>
-      <c r="K58" s="289"/>
-      <c r="L58" s="289"/>
-      <c r="M58" s="289"/>
-      <c r="N58" s="289"/>
-      <c r="O58" s="289"/>
-      <c r="P58" s="289"/>
-      <c r="Q58" s="289"/>
-      <c r="R58" s="289"/>
-      <c r="S58" s="289"/>
-      <c r="T58" s="289"/>
-      <c r="U58" s="289"/>
-      <c r="V58" s="289"/>
-      <c r="W58" s="289"/>
-      <c r="X58" s="289"/>
-      <c r="Y58" s="289"/>
-      <c r="Z58" s="289"/>
-      <c r="AA58" s="289"/>
-      <c r="AB58" s="289"/>
-      <c r="AC58" s="289"/>
-      <c r="AD58" s="289"/>
-      <c r="AE58" s="289"/>
-      <c r="AF58" s="289"/>
-      <c r="AG58" s="289"/>
-      <c r="AH58" s="289"/>
-      <c r="AI58" s="289"/>
-      <c r="AJ58" s="289"/>
-      <c r="AK58" s="289"/>
-      <c r="AL58" s="289"/>
-      <c r="AM58" s="289"/>
-      <c r="AN58" s="289"/>
-      <c r="AO58" s="289"/>
+      <c r="C58" s="340"/>
+      <c r="D58" s="312"/>
+      <c r="E58" s="312"/>
+      <c r="F58" s="312"/>
+      <c r="G58" s="312"/>
+      <c r="H58" s="312"/>
+      <c r="I58" s="312"/>
+      <c r="J58" s="312"/>
+      <c r="K58" s="312"/>
+      <c r="L58" s="312"/>
+      <c r="M58" s="312"/>
+      <c r="N58" s="312"/>
+      <c r="O58" s="312"/>
+      <c r="P58" s="312"/>
+      <c r="Q58" s="312"/>
+      <c r="R58" s="312"/>
+      <c r="S58" s="312"/>
+      <c r="T58" s="312"/>
+      <c r="U58" s="312"/>
+      <c r="V58" s="312"/>
+      <c r="W58" s="312"/>
+      <c r="X58" s="312"/>
+      <c r="Y58" s="312"/>
+      <c r="Z58" s="312"/>
+      <c r="AA58" s="312"/>
+      <c r="AB58" s="312"/>
+      <c r="AC58" s="312"/>
+      <c r="AD58" s="312"/>
+      <c r="AE58" s="312"/>
+      <c r="AF58" s="312"/>
+      <c r="AG58" s="312"/>
+      <c r="AH58" s="312"/>
+      <c r="AI58" s="312"/>
+      <c r="AJ58" s="312"/>
+      <c r="AK58" s="312"/>
+      <c r="AL58" s="312"/>
+      <c r="AM58" s="312"/>
+      <c r="AN58" s="312"/>
+      <c r="AO58" s="312"/>
     </row>
     <row r="59" spans="1:61" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="108" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B59" s="109">
         <f>B58*12</f>
         <v>22680000</v>
       </c>
-      <c r="C59" s="288"/>
-      <c r="D59" s="289"/>
-      <c r="E59" s="289"/>
-      <c r="F59" s="289"/>
-      <c r="G59" s="289"/>
-      <c r="H59" s="289"/>
-      <c r="I59" s="289"/>
-      <c r="J59" s="289"/>
-      <c r="K59" s="289"/>
-      <c r="L59" s="289"/>
-      <c r="M59" s="289"/>
-      <c r="N59" s="289"/>
-      <c r="O59" s="289"/>
-      <c r="P59" s="289"/>
-      <c r="Q59" s="289"/>
-      <c r="R59" s="289"/>
-      <c r="S59" s="289"/>
-      <c r="T59" s="289"/>
-      <c r="U59" s="289"/>
-      <c r="V59" s="289"/>
-      <c r="W59" s="289"/>
-      <c r="X59" s="289"/>
-      <c r="Y59" s="289"/>
-      <c r="Z59" s="289"/>
-      <c r="AA59" s="289"/>
-      <c r="AB59" s="289"/>
-      <c r="AC59" s="289"/>
-      <c r="AD59" s="289"/>
-      <c r="AE59" s="289"/>
-      <c r="AF59" s="289"/>
-      <c r="AG59" s="289"/>
-      <c r="AH59" s="289"/>
-      <c r="AI59" s="289"/>
-      <c r="AJ59" s="289"/>
-      <c r="AK59" s="289"/>
-      <c r="AL59" s="289"/>
-      <c r="AM59" s="289"/>
-      <c r="AN59" s="289"/>
-      <c r="AO59" s="289"/>
+      <c r="C59" s="340"/>
+      <c r="D59" s="312"/>
+      <c r="E59" s="312"/>
+      <c r="F59" s="312"/>
+      <c r="G59" s="312"/>
+      <c r="H59" s="312"/>
+      <c r="I59" s="312"/>
+      <c r="J59" s="312"/>
+      <c r="K59" s="312"/>
+      <c r="L59" s="312"/>
+      <c r="M59" s="312"/>
+      <c r="N59" s="312"/>
+      <c r="O59" s="312"/>
+      <c r="P59" s="312"/>
+      <c r="Q59" s="312"/>
+      <c r="R59" s="312"/>
+      <c r="S59" s="312"/>
+      <c r="T59" s="312"/>
+      <c r="U59" s="312"/>
+      <c r="V59" s="312"/>
+      <c r="W59" s="312"/>
+      <c r="X59" s="312"/>
+      <c r="Y59" s="312"/>
+      <c r="Z59" s="312"/>
+      <c r="AA59" s="312"/>
+      <c r="AB59" s="312"/>
+      <c r="AC59" s="312"/>
+      <c r="AD59" s="312"/>
+      <c r="AE59" s="312"/>
+      <c r="AF59" s="312"/>
+      <c r="AG59" s="312"/>
+      <c r="AH59" s="312"/>
+      <c r="AI59" s="312"/>
+      <c r="AJ59" s="312"/>
+      <c r="AK59" s="312"/>
+      <c r="AL59" s="312"/>
+      <c r="AM59" s="312"/>
+      <c r="AN59" s="312"/>
+      <c r="AO59" s="312"/>
     </row>
     <row r="60" spans="1:61" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="28"/>
@@ -26827,48 +26790,48 @@
       <c r="AN63" s="16"/>
     </row>
     <row r="64" spans="1:61" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="303" t="s">
-        <v>31</v>
-      </c>
-      <c r="B64" s="304"/>
-      <c r="C64" s="304"/>
-      <c r="D64" s="304"/>
-      <c r="E64" s="304"/>
-      <c r="F64" s="304"/>
-      <c r="G64" s="304"/>
-      <c r="H64" s="305"/>
-      <c r="I64" s="305"/>
-      <c r="J64" s="305"/>
-      <c r="K64" s="305"/>
-      <c r="L64" s="304"/>
-      <c r="M64" s="304"/>
-      <c r="N64" s="304"/>
-      <c r="O64" s="304"/>
-      <c r="P64" s="304"/>
-      <c r="Q64" s="304"/>
-      <c r="R64" s="304"/>
-      <c r="S64" s="304"/>
-      <c r="T64" s="304"/>
-      <c r="U64" s="304"/>
-      <c r="V64" s="304"/>
-      <c r="W64" s="304"/>
-      <c r="X64" s="304"/>
-      <c r="Y64" s="304"/>
-      <c r="Z64" s="304"/>
-      <c r="AA64" s="304"/>
-      <c r="AB64" s="304"/>
-      <c r="AC64" s="304"/>
-      <c r="AD64" s="304"/>
-      <c r="AE64" s="304"/>
-      <c r="AF64" s="304"/>
-      <c r="AG64" s="304"/>
-      <c r="AH64" s="304"/>
-      <c r="AI64" s="304"/>
-      <c r="AJ64" s="304"/>
-      <c r="AK64" s="304"/>
-      <c r="AL64" s="304"/>
-      <c r="AM64" s="304"/>
-      <c r="AN64" s="306"/>
+      <c r="A64" s="327" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" s="328"/>
+      <c r="C64" s="328"/>
+      <c r="D64" s="328"/>
+      <c r="E64" s="328"/>
+      <c r="F64" s="328"/>
+      <c r="G64" s="328"/>
+      <c r="H64" s="329"/>
+      <c r="I64" s="329"/>
+      <c r="J64" s="329"/>
+      <c r="K64" s="329"/>
+      <c r="L64" s="328"/>
+      <c r="M64" s="328"/>
+      <c r="N64" s="328"/>
+      <c r="O64" s="328"/>
+      <c r="P64" s="328"/>
+      <c r="Q64" s="328"/>
+      <c r="R64" s="328"/>
+      <c r="S64" s="328"/>
+      <c r="T64" s="328"/>
+      <c r="U64" s="328"/>
+      <c r="V64" s="328"/>
+      <c r="W64" s="328"/>
+      <c r="X64" s="328"/>
+      <c r="Y64" s="328"/>
+      <c r="Z64" s="328"/>
+      <c r="AA64" s="328"/>
+      <c r="AB64" s="328"/>
+      <c r="AC64" s="328"/>
+      <c r="AD64" s="328"/>
+      <c r="AE64" s="328"/>
+      <c r="AF64" s="328"/>
+      <c r="AG64" s="328"/>
+      <c r="AH64" s="328"/>
+      <c r="AI64" s="328"/>
+      <c r="AJ64" s="328"/>
+      <c r="AK64" s="328"/>
+      <c r="AL64" s="328"/>
+      <c r="AM64" s="328"/>
+      <c r="AN64" s="330"/>
       <c r="AO64" s="8"/>
       <c r="AP64" s="8"/>
       <c r="AQ64" s="8"/>
@@ -26892,76 +26855,76 @@
       <c r="BI64" s="8"/>
     </row>
     <row r="65" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A65" s="307" t="s">
-        <v>11</v>
-      </c>
-      <c r="B65" s="307" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="310" t="s">
-        <v>38</v>
-      </c>
-      <c r="D65" s="311"/>
-      <c r="E65" s="293" t="s">
+      <c r="A65" s="331" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="331" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="334" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" s="335"/>
+      <c r="E65" s="317" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="318"/>
+      <c r="G65" s="319"/>
+      <c r="H65" s="317" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" s="318"/>
+      <c r="J65" s="319"/>
+      <c r="K65" s="317" t="s">
         <v>18</v>
       </c>
-      <c r="F65" s="294"/>
-      <c r="G65" s="295"/>
-      <c r="H65" s="293" t="s">
+      <c r="L65" s="318"/>
+      <c r="M65" s="319"/>
+      <c r="N65" s="317" t="s">
         <v>19</v>
       </c>
-      <c r="I65" s="294"/>
-      <c r="J65" s="295"/>
-      <c r="K65" s="293" t="s">
+      <c r="O65" s="318"/>
+      <c r="P65" s="319"/>
+      <c r="Q65" s="317" t="s">
         <v>20</v>
       </c>
-      <c r="L65" s="294"/>
-      <c r="M65" s="295"/>
-      <c r="N65" s="293" t="s">
+      <c r="R65" s="318"/>
+      <c r="S65" s="319"/>
+      <c r="T65" s="317" t="s">
         <v>21</v>
       </c>
-      <c r="O65" s="294"/>
-      <c r="P65" s="295"/>
-      <c r="Q65" s="293" t="s">
+      <c r="U65" s="318"/>
+      <c r="V65" s="319"/>
+      <c r="W65" s="317" t="s">
         <v>22</v>
       </c>
-      <c r="R65" s="294"/>
-      <c r="S65" s="295"/>
-      <c r="T65" s="293" t="s">
+      <c r="X65" s="318"/>
+      <c r="Y65" s="319"/>
+      <c r="Z65" s="317" t="s">
         <v>23</v>
       </c>
-      <c r="U65" s="294"/>
-      <c r="V65" s="295"/>
-      <c r="W65" s="293" t="s">
+      <c r="AA65" s="318"/>
+      <c r="AB65" s="319"/>
+      <c r="AC65" s="317" t="s">
         <v>24</v>
       </c>
-      <c r="X65" s="294"/>
-      <c r="Y65" s="295"/>
-      <c r="Z65" s="293" t="s">
+      <c r="AD65" s="318"/>
+      <c r="AE65" s="319"/>
+      <c r="AF65" s="317" t="s">
         <v>25</v>
       </c>
-      <c r="AA65" s="294"/>
-      <c r="AB65" s="295"/>
-      <c r="AC65" s="293" t="s">
+      <c r="AG65" s="318"/>
+      <c r="AH65" s="319"/>
+      <c r="AI65" s="317" t="s">
         <v>26</v>
       </c>
-      <c r="AD65" s="294"/>
-      <c r="AE65" s="295"/>
-      <c r="AF65" s="293" t="s">
+      <c r="AJ65" s="318"/>
+      <c r="AK65" s="319"/>
+      <c r="AL65" s="317" t="s">
         <v>27</v>
       </c>
-      <c r="AG65" s="294"/>
-      <c r="AH65" s="295"/>
-      <c r="AI65" s="293" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ65" s="294"/>
-      <c r="AK65" s="295"/>
-      <c r="AL65" s="293" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM65" s="294"/>
-      <c r="AN65" s="295"/>
+      <c r="AM65" s="318"/>
+      <c r="AN65" s="319"/>
       <c r="AO65" s="8"/>
       <c r="AP65" s="8"/>
       <c r="AQ65" s="8"/>
@@ -26985,74 +26948,74 @@
       <c r="BI65" s="8"/>
     </row>
     <row r="66" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A66" s="308"/>
-      <c r="B66" s="308"/>
-      <c r="C66" s="296" t="s">
-        <v>37</v>
-      </c>
-      <c r="D66" s="298" t="s">
-        <v>17</v>
-      </c>
-      <c r="E66" s="300">
+      <c r="A66" s="332"/>
+      <c r="B66" s="332"/>
+      <c r="C66" s="320" t="s">
+        <v>35</v>
+      </c>
+      <c r="D66" s="322" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="324">
         <v>0.02</v>
       </c>
-      <c r="F66" s="301"/>
-      <c r="G66" s="302"/>
-      <c r="H66" s="300">
+      <c r="F66" s="325"/>
+      <c r="G66" s="326"/>
+      <c r="H66" s="324">
         <v>0.04</v>
       </c>
-      <c r="I66" s="301"/>
-      <c r="J66" s="302"/>
-      <c r="K66" s="300">
+      <c r="I66" s="325"/>
+      <c r="J66" s="326"/>
+      <c r="K66" s="324">
         <v>0.04</v>
       </c>
-      <c r="L66" s="301"/>
-      <c r="M66" s="302"/>
-      <c r="N66" s="300">
+      <c r="L66" s="325"/>
+      <c r="M66" s="326"/>
+      <c r="N66" s="324">
         <v>0.05</v>
       </c>
-      <c r="O66" s="301"/>
-      <c r="P66" s="302"/>
-      <c r="Q66" s="300">
+      <c r="O66" s="325"/>
+      <c r="P66" s="326"/>
+      <c r="Q66" s="324">
         <v>0.06</v>
       </c>
-      <c r="R66" s="301"/>
-      <c r="S66" s="302"/>
-      <c r="T66" s="300">
+      <c r="R66" s="325"/>
+      <c r="S66" s="326"/>
+      <c r="T66" s="324">
         <v>0.08</v>
       </c>
-      <c r="U66" s="301"/>
-      <c r="V66" s="302"/>
-      <c r="W66" s="300">
+      <c r="U66" s="325"/>
+      <c r="V66" s="326"/>
+      <c r="W66" s="324">
         <v>0.1</v>
       </c>
-      <c r="X66" s="301"/>
-      <c r="Y66" s="302"/>
-      <c r="Z66" s="300">
+      <c r="X66" s="325"/>
+      <c r="Y66" s="326"/>
+      <c r="Z66" s="324">
         <v>0.11</v>
       </c>
-      <c r="AA66" s="301"/>
-      <c r="AB66" s="302"/>
-      <c r="AC66" s="300">
+      <c r="AA66" s="325"/>
+      <c r="AB66" s="326"/>
+      <c r="AC66" s="324">
         <v>0.11</v>
       </c>
-      <c r="AD66" s="301"/>
-      <c r="AE66" s="302"/>
-      <c r="AF66" s="300">
+      <c r="AD66" s="325"/>
+      <c r="AE66" s="326"/>
+      <c r="AF66" s="324">
         <v>0.12</v>
       </c>
-      <c r="AG66" s="301"/>
-      <c r="AH66" s="302"/>
-      <c r="AI66" s="300">
+      <c r="AG66" s="325"/>
+      <c r="AH66" s="326"/>
+      <c r="AI66" s="324">
         <v>0.13</v>
       </c>
-      <c r="AJ66" s="301"/>
-      <c r="AK66" s="302"/>
-      <c r="AL66" s="300">
+      <c r="AJ66" s="325"/>
+      <c r="AK66" s="326"/>
+      <c r="AL66" s="324">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AM66" s="301"/>
-      <c r="AN66" s="302"/>
+      <c r="AM66" s="325"/>
+      <c r="AN66" s="326"/>
       <c r="AO66" s="8"/>
       <c r="AP66" s="8"/>
       <c r="AQ66" s="8"/>
@@ -27076,93 +27039,93 @@
       <c r="BI66" s="8"/>
     </row>
     <row r="67" spans="1:61" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="309"/>
-      <c r="B67" s="309"/>
-      <c r="C67" s="297"/>
-      <c r="D67" s="299"/>
+      <c r="A67" s="333"/>
+      <c r="B67" s="333"/>
+      <c r="C67" s="321"/>
+      <c r="D67" s="339"/>
       <c r="E67" s="121"/>
       <c r="F67" s="82" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G67" s="119" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H67" s="84"/>
       <c r="I67" s="141" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J67" s="83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K67" s="118"/>
       <c r="L67" s="82" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M67" s="83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N67" s="118"/>
       <c r="O67" s="84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P67" s="83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q67" s="118"/>
       <c r="R67" s="84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S67" s="83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T67" s="118"/>
       <c r="U67" s="84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V67" s="83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W67" s="118"/>
       <c r="X67" s="84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y67" s="83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z67" s="118"/>
       <c r="AA67" s="84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB67" s="83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC67" s="118"/>
       <c r="AD67" s="84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE67" s="83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF67" s="118"/>
       <c r="AG67" s="84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AH67" s="83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI67" s="118"/>
       <c r="AJ67" s="84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AK67" s="83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL67" s="118"/>
       <c r="AM67" s="84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN67" s="83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO67" s="8"/>
       <c r="AP67" s="8"/>
@@ -27188,7 +27151,7 @@
     </row>
     <row r="68" spans="1:61" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="95" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B68" s="92">
         <f>Hipótesis!C49</f>
@@ -27349,7 +27312,7 @@
     </row>
     <row r="69" spans="1:61" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="96" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B69" s="93">
         <f>Hipótesis!C52</f>
@@ -27509,7 +27472,7 @@
     </row>
     <row r="70" spans="1:61" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="97" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B70" s="94">
         <f>Hipótesis!C55</f>
@@ -27668,10 +27631,10 @@
       </c>
     </row>
     <row r="71" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="291" t="s">
-        <v>46</v>
-      </c>
-      <c r="B71" s="292"/>
+      <c r="A71" s="315" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" s="316"/>
       <c r="C71" s="86">
         <f>SUM(C68:C70)</f>
         <v>145752</v>
@@ -27756,32 +27719,32 @@
     </row>
     <row r="100" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="101" spans="1:61" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="317" t="s">
-        <v>99</v>
-      </c>
-      <c r="B101" s="318"/>
-      <c r="C101" s="318"/>
-      <c r="D101" s="318"/>
-      <c r="E101" s="318"/>
-      <c r="F101" s="318"/>
-      <c r="G101" s="318"/>
-      <c r="H101" s="318"/>
-      <c r="I101" s="318"/>
-      <c r="J101" s="318"/>
-      <c r="K101" s="318"/>
-      <c r="L101" s="318"/>
-      <c r="M101" s="318"/>
-      <c r="N101" s="318"/>
-      <c r="O101" s="318"/>
-      <c r="P101" s="318"/>
-      <c r="Q101" s="318"/>
-      <c r="R101" s="318"/>
-      <c r="S101" s="318"/>
-      <c r="T101" s="318"/>
-      <c r="U101" s="318"/>
-      <c r="V101" s="318"/>
-      <c r="W101" s="318"/>
-      <c r="X101" s="319"/>
+      <c r="A101" s="303" t="s">
+        <v>96</v>
+      </c>
+      <c r="B101" s="304"/>
+      <c r="C101" s="304"/>
+      <c r="D101" s="304"/>
+      <c r="E101" s="304"/>
+      <c r="F101" s="304"/>
+      <c r="G101" s="304"/>
+      <c r="H101" s="304"/>
+      <c r="I101" s="304"/>
+      <c r="J101" s="304"/>
+      <c r="K101" s="304"/>
+      <c r="L101" s="304"/>
+      <c r="M101" s="304"/>
+      <c r="N101" s="304"/>
+      <c r="O101" s="304"/>
+      <c r="P101" s="304"/>
+      <c r="Q101" s="304"/>
+      <c r="R101" s="304"/>
+      <c r="S101" s="304"/>
+      <c r="T101" s="304"/>
+      <c r="U101" s="304"/>
+      <c r="V101" s="304"/>
+      <c r="W101" s="304"/>
+      <c r="X101" s="305"/>
       <c r="Y101" s="156"/>
       <c r="Z101" s="156"/>
       <c r="AA101" s="156"/>
@@ -27800,74 +27763,74 @@
       <c r="AN101" s="104"/>
     </row>
     <row r="102" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="320" t="s">
+      <c r="B102" s="336" t="s">
+        <v>69</v>
+      </c>
+      <c r="C102" s="337" t="s">
+        <v>70</v>
+      </c>
+      <c r="D102" s="338" t="s">
         <v>71</v>
       </c>
-      <c r="C102" s="312" t="s">
+      <c r="E102" s="308" t="s">
         <v>72</v>
       </c>
-      <c r="D102" s="315" t="s">
+      <c r="F102" s="337" t="s">
         <v>73</v>
       </c>
-      <c r="E102" s="314" t="s">
+      <c r="G102" s="337" t="s">
         <v>74</v>
       </c>
-      <c r="F102" s="312" t="s">
+      <c r="H102" s="337" t="s">
         <v>75</v>
       </c>
-      <c r="G102" s="312" t="s">
+      <c r="I102" s="337" t="s">
         <v>76</v>
       </c>
-      <c r="H102" s="312" t="s">
+      <c r="J102" s="337" t="s">
         <v>77</v>
       </c>
-      <c r="I102" s="312" t="s">
+      <c r="K102" s="337" t="s">
         <v>78</v>
       </c>
-      <c r="J102" s="312" t="s">
+      <c r="L102" s="337" t="s">
         <v>79</v>
       </c>
-      <c r="K102" s="312" t="s">
+      <c r="M102" s="308" t="s">
         <v>80</v>
       </c>
-      <c r="L102" s="312" t="s">
+      <c r="N102" s="308" t="s">
         <v>81</v>
       </c>
-      <c r="M102" s="314" t="s">
+      <c r="O102" s="308" t="s">
         <v>82</v>
       </c>
-      <c r="N102" s="314" t="s">
+      <c r="P102" s="308" t="s">
         <v>83</v>
       </c>
-      <c r="O102" s="314" t="s">
+      <c r="Q102" s="308" t="s">
         <v>84</v>
       </c>
-      <c r="P102" s="314" t="s">
+      <c r="R102" s="308" t="s">
         <v>85</v>
       </c>
-      <c r="Q102" s="314" t="s">
+      <c r="S102" s="337" t="s">
         <v>86</v>
       </c>
-      <c r="R102" s="314" t="s">
+      <c r="T102" s="337" t="s">
         <v>87</v>
       </c>
-      <c r="S102" s="312" t="s">
+      <c r="U102" s="308" t="s">
         <v>88</v>
       </c>
-      <c r="T102" s="312" t="s">
+      <c r="V102" s="308" t="s">
         <v>89</v>
       </c>
-      <c r="U102" s="314" t="s">
+      <c r="W102" s="337" t="s">
         <v>90</v>
       </c>
-      <c r="V102" s="314" t="s">
+      <c r="X102" s="308" t="s">
         <v>91</v>
-      </c>
-      <c r="W102" s="312" t="s">
-        <v>92</v>
-      </c>
-      <c r="X102" s="314" t="s">
-        <v>93</v>
       </c>
       <c r="Y102" s="25"/>
       <c r="Z102" s="25"/>
@@ -27887,29 +27850,29 @@
       <c r="AN102" s="89"/>
     </row>
     <row r="103" spans="1:61" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="321"/>
-      <c r="C103" s="313"/>
-      <c r="D103" s="316"/>
-      <c r="E103" s="313"/>
-      <c r="F103" s="313"/>
-      <c r="G103" s="313"/>
-      <c r="H103" s="313"/>
-      <c r="I103" s="313"/>
-      <c r="J103" s="313"/>
-      <c r="K103" s="313"/>
-      <c r="L103" s="313"/>
-      <c r="M103" s="313"/>
-      <c r="N103" s="313"/>
-      <c r="O103" s="313"/>
-      <c r="P103" s="313"/>
-      <c r="Q103" s="313"/>
-      <c r="R103" s="313"/>
-      <c r="S103" s="313"/>
-      <c r="T103" s="313"/>
-      <c r="U103" s="313"/>
-      <c r="V103" s="313"/>
-      <c r="W103" s="313"/>
-      <c r="X103" s="313"/>
+      <c r="B103" s="307"/>
+      <c r="C103" s="309"/>
+      <c r="D103" s="311"/>
+      <c r="E103" s="309"/>
+      <c r="F103" s="309"/>
+      <c r="G103" s="309"/>
+      <c r="H103" s="309"/>
+      <c r="I103" s="309"/>
+      <c r="J103" s="309"/>
+      <c r="K103" s="309"/>
+      <c r="L103" s="309"/>
+      <c r="M103" s="309"/>
+      <c r="N103" s="309"/>
+      <c r="O103" s="309"/>
+      <c r="P103" s="309"/>
+      <c r="Q103" s="309"/>
+      <c r="R103" s="309"/>
+      <c r="S103" s="309"/>
+      <c r="T103" s="309"/>
+      <c r="U103" s="309"/>
+      <c r="V103" s="309"/>
+      <c r="W103" s="309"/>
+      <c r="X103" s="309"/>
       <c r="AA103" s="25"/>
       <c r="AB103" s="25"/>
       <c r="AC103" s="99"/>
@@ -27927,7 +27890,7 @@
     </row>
     <row r="104" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="105" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B104" s="102">
         <v>80</v>
@@ -28015,7 +27978,7 @@
     </row>
     <row r="105" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="105" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B105" s="112">
         <f>B56*1.15</f>
@@ -28126,7 +28089,7 @@
     </row>
     <row r="106" spans="1:61" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="106" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B106" s="103">
         <v>1</v>
@@ -28214,7 +28177,7 @@
     </row>
     <row r="107" spans="1:61" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="107" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B107" s="109">
         <f>SUM(B105:AF105)</f>
@@ -28261,7 +28224,7 @@
     </row>
     <row r="108" spans="1:61" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="108" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B108" s="109">
         <f>B107*12</f>
@@ -28392,48 +28355,48 @@
     </row>
     <row r="111" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="112" spans="1:61" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A112" s="303" t="s">
-        <v>98</v>
-      </c>
-      <c r="B112" s="304"/>
-      <c r="C112" s="304"/>
-      <c r="D112" s="304"/>
-      <c r="E112" s="304"/>
-      <c r="F112" s="304"/>
-      <c r="G112" s="304"/>
-      <c r="H112" s="305"/>
-      <c r="I112" s="305"/>
-      <c r="J112" s="305"/>
-      <c r="K112" s="305"/>
-      <c r="L112" s="304"/>
-      <c r="M112" s="304"/>
-      <c r="N112" s="304"/>
-      <c r="O112" s="304"/>
-      <c r="P112" s="304"/>
-      <c r="Q112" s="304"/>
-      <c r="R112" s="304"/>
-      <c r="S112" s="304"/>
-      <c r="T112" s="304"/>
-      <c r="U112" s="304"/>
-      <c r="V112" s="304"/>
-      <c r="W112" s="304"/>
-      <c r="X112" s="304"/>
-      <c r="Y112" s="304"/>
-      <c r="Z112" s="304"/>
-      <c r="AA112" s="304"/>
-      <c r="AB112" s="304"/>
-      <c r="AC112" s="304"/>
-      <c r="AD112" s="304"/>
-      <c r="AE112" s="304"/>
-      <c r="AF112" s="304"/>
-      <c r="AG112" s="304"/>
-      <c r="AH112" s="304"/>
-      <c r="AI112" s="304"/>
-      <c r="AJ112" s="304"/>
-      <c r="AK112" s="304"/>
-      <c r="AL112" s="304"/>
-      <c r="AM112" s="304"/>
-      <c r="AN112" s="306"/>
+      <c r="A112" s="327" t="s">
+        <v>95</v>
+      </c>
+      <c r="B112" s="328"/>
+      <c r="C112" s="328"/>
+      <c r="D112" s="328"/>
+      <c r="E112" s="328"/>
+      <c r="F112" s="328"/>
+      <c r="G112" s="328"/>
+      <c r="H112" s="329"/>
+      <c r="I112" s="329"/>
+      <c r="J112" s="329"/>
+      <c r="K112" s="329"/>
+      <c r="L112" s="328"/>
+      <c r="M112" s="328"/>
+      <c r="N112" s="328"/>
+      <c r="O112" s="328"/>
+      <c r="P112" s="328"/>
+      <c r="Q112" s="328"/>
+      <c r="R112" s="328"/>
+      <c r="S112" s="328"/>
+      <c r="T112" s="328"/>
+      <c r="U112" s="328"/>
+      <c r="V112" s="328"/>
+      <c r="W112" s="328"/>
+      <c r="X112" s="328"/>
+      <c r="Y112" s="328"/>
+      <c r="Z112" s="328"/>
+      <c r="AA112" s="328"/>
+      <c r="AB112" s="328"/>
+      <c r="AC112" s="328"/>
+      <c r="AD112" s="328"/>
+      <c r="AE112" s="328"/>
+      <c r="AF112" s="328"/>
+      <c r="AG112" s="328"/>
+      <c r="AH112" s="328"/>
+      <c r="AI112" s="328"/>
+      <c r="AJ112" s="328"/>
+      <c r="AK112" s="328"/>
+      <c r="AL112" s="328"/>
+      <c r="AM112" s="328"/>
+      <c r="AN112" s="330"/>
       <c r="AO112" s="8"/>
       <c r="AP112" s="8"/>
       <c r="AQ112" s="8"/>
@@ -28457,76 +28420,76 @@
       <c r="BI112" s="8"/>
     </row>
     <row r="113" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A113" s="307" t="s">
-        <v>11</v>
-      </c>
-      <c r="B113" s="307" t="s">
-        <v>12</v>
-      </c>
-      <c r="C113" s="310" t="s">
-        <v>38</v>
-      </c>
-      <c r="D113" s="311"/>
-      <c r="E113" s="293" t="s">
+      <c r="A113" s="331" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="331" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" s="334" t="s">
+        <v>36</v>
+      </c>
+      <c r="D113" s="335"/>
+      <c r="E113" s="317" t="s">
+        <v>16</v>
+      </c>
+      <c r="F113" s="318"/>
+      <c r="G113" s="319"/>
+      <c r="H113" s="317" t="s">
+        <v>17</v>
+      </c>
+      <c r="I113" s="318"/>
+      <c r="J113" s="319"/>
+      <c r="K113" s="317" t="s">
         <v>18</v>
       </c>
-      <c r="F113" s="294"/>
-      <c r="G113" s="295"/>
-      <c r="H113" s="293" t="s">
+      <c r="L113" s="318"/>
+      <c r="M113" s="319"/>
+      <c r="N113" s="317" t="s">
         <v>19</v>
       </c>
-      <c r="I113" s="294"/>
-      <c r="J113" s="295"/>
-      <c r="K113" s="293" t="s">
+      <c r="O113" s="318"/>
+      <c r="P113" s="319"/>
+      <c r="Q113" s="317" t="s">
         <v>20</v>
       </c>
-      <c r="L113" s="294"/>
-      <c r="M113" s="295"/>
-      <c r="N113" s="293" t="s">
+      <c r="R113" s="318"/>
+      <c r="S113" s="319"/>
+      <c r="T113" s="317" t="s">
         <v>21</v>
       </c>
-      <c r="O113" s="294"/>
-      <c r="P113" s="295"/>
-      <c r="Q113" s="293" t="s">
+      <c r="U113" s="318"/>
+      <c r="V113" s="319"/>
+      <c r="W113" s="317" t="s">
         <v>22</v>
       </c>
-      <c r="R113" s="294"/>
-      <c r="S113" s="295"/>
-      <c r="T113" s="293" t="s">
+      <c r="X113" s="318"/>
+      <c r="Y113" s="319"/>
+      <c r="Z113" s="317" t="s">
         <v>23</v>
       </c>
-      <c r="U113" s="294"/>
-      <c r="V113" s="295"/>
-      <c r="W113" s="293" t="s">
+      <c r="AA113" s="318"/>
+      <c r="AB113" s="319"/>
+      <c r="AC113" s="317" t="s">
         <v>24</v>
       </c>
-      <c r="X113" s="294"/>
-      <c r="Y113" s="295"/>
-      <c r="Z113" s="293" t="s">
+      <c r="AD113" s="318"/>
+      <c r="AE113" s="319"/>
+      <c r="AF113" s="317" t="s">
         <v>25</v>
       </c>
-      <c r="AA113" s="294"/>
-      <c r="AB113" s="295"/>
-      <c r="AC113" s="293" t="s">
+      <c r="AG113" s="318"/>
+      <c r="AH113" s="319"/>
+      <c r="AI113" s="317" t="s">
         <v>26</v>
       </c>
-      <c r="AD113" s="294"/>
-      <c r="AE113" s="295"/>
-      <c r="AF113" s="293" t="s">
+      <c r="AJ113" s="318"/>
+      <c r="AK113" s="319"/>
+      <c r="AL113" s="317" t="s">
         <v>27</v>
       </c>
-      <c r="AG113" s="294"/>
-      <c r="AH113" s="295"/>
-      <c r="AI113" s="293" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ113" s="294"/>
-      <c r="AK113" s="295"/>
-      <c r="AL113" s="293" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM113" s="294"/>
-      <c r="AN113" s="295"/>
+      <c r="AM113" s="318"/>
+      <c r="AN113" s="319"/>
       <c r="AO113" s="8"/>
       <c r="AP113" s="8"/>
       <c r="AQ113" s="8"/>
@@ -28550,74 +28513,74 @@
       <c r="BI113" s="8"/>
     </row>
     <row r="114" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A114" s="308"/>
-      <c r="B114" s="308"/>
-      <c r="C114" s="296" t="s">
-        <v>37</v>
-      </c>
-      <c r="D114" s="298" t="s">
-        <v>17</v>
-      </c>
-      <c r="E114" s="300">
+      <c r="A114" s="332"/>
+      <c r="B114" s="332"/>
+      <c r="C114" s="320" t="s">
+        <v>35</v>
+      </c>
+      <c r="D114" s="322" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114" s="324">
         <v>0.02</v>
       </c>
-      <c r="F114" s="301"/>
-      <c r="G114" s="302"/>
-      <c r="H114" s="300">
+      <c r="F114" s="325"/>
+      <c r="G114" s="326"/>
+      <c r="H114" s="324">
         <v>0.04</v>
       </c>
-      <c r="I114" s="301"/>
-      <c r="J114" s="302"/>
-      <c r="K114" s="300">
+      <c r="I114" s="325"/>
+      <c r="J114" s="326"/>
+      <c r="K114" s="324">
         <v>0.04</v>
       </c>
-      <c r="L114" s="301"/>
-      <c r="M114" s="302"/>
-      <c r="N114" s="300">
+      <c r="L114" s="325"/>
+      <c r="M114" s="326"/>
+      <c r="N114" s="324">
         <v>0.05</v>
       </c>
-      <c r="O114" s="301"/>
-      <c r="P114" s="302"/>
-      <c r="Q114" s="300">
+      <c r="O114" s="325"/>
+      <c r="P114" s="326"/>
+      <c r="Q114" s="324">
         <v>0.06</v>
       </c>
-      <c r="R114" s="301"/>
-      <c r="S114" s="302"/>
-      <c r="T114" s="300">
+      <c r="R114" s="325"/>
+      <c r="S114" s="326"/>
+      <c r="T114" s="324">
         <v>0.08</v>
       </c>
-      <c r="U114" s="301"/>
-      <c r="V114" s="302"/>
-      <c r="W114" s="300">
+      <c r="U114" s="325"/>
+      <c r="V114" s="326"/>
+      <c r="W114" s="324">
         <v>0.1</v>
       </c>
-      <c r="X114" s="301"/>
-      <c r="Y114" s="302"/>
-      <c r="Z114" s="300">
+      <c r="X114" s="325"/>
+      <c r="Y114" s="326"/>
+      <c r="Z114" s="324">
         <v>0.11</v>
       </c>
-      <c r="AA114" s="301"/>
-      <c r="AB114" s="302"/>
-      <c r="AC114" s="300">
+      <c r="AA114" s="325"/>
+      <c r="AB114" s="326"/>
+      <c r="AC114" s="324">
         <v>0.11</v>
       </c>
-      <c r="AD114" s="301"/>
-      <c r="AE114" s="302"/>
-      <c r="AF114" s="300">
+      <c r="AD114" s="325"/>
+      <c r="AE114" s="326"/>
+      <c r="AF114" s="324">
         <v>0.12</v>
       </c>
-      <c r="AG114" s="301"/>
-      <c r="AH114" s="302"/>
-      <c r="AI114" s="300">
+      <c r="AG114" s="325"/>
+      <c r="AH114" s="326"/>
+      <c r="AI114" s="324">
         <v>0.13</v>
       </c>
-      <c r="AJ114" s="301"/>
-      <c r="AK114" s="302"/>
-      <c r="AL114" s="300">
+      <c r="AJ114" s="325"/>
+      <c r="AK114" s="326"/>
+      <c r="AL114" s="324">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AM114" s="301"/>
-      <c r="AN114" s="302"/>
+      <c r="AM114" s="325"/>
+      <c r="AN114" s="326"/>
       <c r="AO114" s="8"/>
       <c r="AP114" s="8"/>
       <c r="AQ114" s="8"/>
@@ -28641,117 +28604,117 @@
       <c r="BI114" s="8"/>
     </row>
     <row r="115" spans="1:61" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="309"/>
-      <c r="B115" s="309"/>
-      <c r="C115" s="297"/>
-      <c r="D115" s="328"/>
+      <c r="A115" s="333"/>
+      <c r="B115" s="333"/>
+      <c r="C115" s="321"/>
+      <c r="D115" s="323"/>
       <c r="E115" s="182" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F115" s="183" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G115" s="119" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H115" s="84" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I115" s="141" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J115" s="119" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K115" s="183" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L115" s="82" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M115" s="83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N115" s="118" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O115" s="84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P115" s="83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q115" s="118" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="R115" s="84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S115" s="83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T115" s="118" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="U115" s="84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V115" s="83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W115" s="118" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="X115" s="84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y115" s="83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z115" s="118" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AA115" s="84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB115" s="83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC115" s="118" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AD115" s="84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE115" s="83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF115" s="118" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AG115" s="84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AH115" s="83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI115" s="118" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AJ115" s="84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AK115" s="83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL115" s="118" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="AM115" s="84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN115" s="83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO115" s="8"/>
       <c r="AP115" s="8"/>
@@ -28777,7 +28740,7 @@
     </row>
     <row r="116" spans="1:61" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="95" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B116" s="92">
         <f>Hipótesis!C49</f>
@@ -28938,7 +28901,7 @@
     </row>
     <row r="117" spans="1:61" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="96" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B117" s="93">
         <f>Hipótesis!C52</f>
@@ -29099,7 +29062,7 @@
     </row>
     <row r="118" spans="1:61" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="97" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B118" s="94">
         <f>Hipótesis!C55</f>
@@ -29259,10 +29222,10 @@
       </c>
     </row>
     <row r="119" spans="1:61" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="291" t="s">
-        <v>46</v>
-      </c>
-      <c r="B119" s="292"/>
+      <c r="A119" s="315" t="s">
+        <v>44</v>
+      </c>
+      <c r="B119" s="316"/>
       <c r="C119" s="86">
         <f>SUM(C116:C118)</f>
         <v>306079.2</v>
@@ -29347,32 +29310,32 @@
     </row>
     <row r="147" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="148" spans="1:40" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A148" s="317" t="s">
-        <v>101</v>
-      </c>
-      <c r="B148" s="318"/>
-      <c r="C148" s="318"/>
-      <c r="D148" s="318"/>
-      <c r="E148" s="318"/>
-      <c r="F148" s="318"/>
-      <c r="G148" s="318"/>
-      <c r="H148" s="318"/>
-      <c r="I148" s="318"/>
-      <c r="J148" s="318"/>
-      <c r="K148" s="318"/>
-      <c r="L148" s="318"/>
-      <c r="M148" s="318"/>
-      <c r="N148" s="318"/>
-      <c r="O148" s="318"/>
-      <c r="P148" s="318"/>
-      <c r="Q148" s="318"/>
-      <c r="R148" s="318"/>
-      <c r="S148" s="318"/>
-      <c r="T148" s="318"/>
-      <c r="U148" s="318"/>
-      <c r="V148" s="318"/>
-      <c r="W148" s="318"/>
-      <c r="X148" s="319"/>
+      <c r="A148" s="303" t="s">
+        <v>98</v>
+      </c>
+      <c r="B148" s="304"/>
+      <c r="C148" s="304"/>
+      <c r="D148" s="304"/>
+      <c r="E148" s="304"/>
+      <c r="F148" s="304"/>
+      <c r="G148" s="304"/>
+      <c r="H148" s="304"/>
+      <c r="I148" s="304"/>
+      <c r="J148" s="304"/>
+      <c r="K148" s="304"/>
+      <c r="L148" s="304"/>
+      <c r="M148" s="304"/>
+      <c r="N148" s="304"/>
+      <c r="O148" s="304"/>
+      <c r="P148" s="304"/>
+      <c r="Q148" s="304"/>
+      <c r="R148" s="304"/>
+      <c r="S148" s="304"/>
+      <c r="T148" s="304"/>
+      <c r="U148" s="304"/>
+      <c r="V148" s="304"/>
+      <c r="W148" s="304"/>
+      <c r="X148" s="305"/>
       <c r="Y148" s="156"/>
       <c r="Z148" s="156"/>
       <c r="AA148" s="156"/>
@@ -29391,74 +29354,74 @@
       <c r="AN148" s="104"/>
     </row>
     <row r="149" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="329" t="s">
+      <c r="B149" s="306" t="s">
+        <v>69</v>
+      </c>
+      <c r="C149" s="308" t="s">
+        <v>70</v>
+      </c>
+      <c r="D149" s="310" t="s">
         <v>71</v>
       </c>
-      <c r="C149" s="314" t="s">
+      <c r="E149" s="308" t="s">
         <v>72</v>
       </c>
-      <c r="D149" s="330" t="s">
+      <c r="F149" s="308" t="s">
         <v>73</v>
       </c>
-      <c r="E149" s="314" t="s">
+      <c r="G149" s="308" t="s">
         <v>74</v>
       </c>
-      <c r="F149" s="314" t="s">
+      <c r="H149" s="308" t="s">
         <v>75</v>
       </c>
-      <c r="G149" s="314" t="s">
+      <c r="I149" s="308" t="s">
         <v>76</v>
       </c>
-      <c r="H149" s="314" t="s">
+      <c r="J149" s="308" t="s">
         <v>77</v>
       </c>
-      <c r="I149" s="314" t="s">
+      <c r="K149" s="312" t="s">
         <v>78</v>
       </c>
-      <c r="J149" s="314" t="s">
+      <c r="L149" s="308" t="s">
         <v>79</v>
       </c>
-      <c r="K149" s="289" t="s">
+      <c r="M149" s="308" t="s">
         <v>80</v>
       </c>
-      <c r="L149" s="314" t="s">
+      <c r="N149" s="308" t="s">
         <v>81</v>
       </c>
-      <c r="M149" s="314" t="s">
+      <c r="O149" s="308" t="s">
         <v>82</v>
       </c>
-      <c r="N149" s="314" t="s">
+      <c r="P149" s="308" t="s">
         <v>83</v>
       </c>
-      <c r="O149" s="314" t="s">
+      <c r="Q149" s="308" t="s">
         <v>84</v>
       </c>
-      <c r="P149" s="314" t="s">
+      <c r="R149" s="314" t="s">
         <v>85</v>
       </c>
-      <c r="Q149" s="314" t="s">
+      <c r="S149" s="308" t="s">
         <v>86</v>
       </c>
-      <c r="R149" s="332" t="s">
+      <c r="T149" s="308" t="s">
         <v>87</v>
       </c>
-      <c r="S149" s="314" t="s">
+      <c r="U149" s="308" t="s">
         <v>88</v>
       </c>
-      <c r="T149" s="314" t="s">
+      <c r="V149" s="308" t="s">
         <v>89</v>
       </c>
-      <c r="U149" s="314" t="s">
+      <c r="W149" s="308" t="s">
         <v>90</v>
       </c>
-      <c r="V149" s="314" t="s">
+      <c r="X149" s="308" t="s">
         <v>91</v>
-      </c>
-      <c r="W149" s="314" t="s">
-        <v>92</v>
-      </c>
-      <c r="X149" s="314" t="s">
-        <v>93</v>
       </c>
       <c r="Y149" s="25"/>
       <c r="Z149" s="25"/>
@@ -29478,29 +29441,29 @@
       <c r="AN149" s="89"/>
     </row>
     <row r="150" spans="1:40" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="321"/>
-      <c r="C150" s="313"/>
-      <c r="D150" s="316"/>
-      <c r="E150" s="313"/>
-      <c r="F150" s="313"/>
-      <c r="G150" s="313"/>
-      <c r="H150" s="313"/>
-      <c r="I150" s="313"/>
-      <c r="J150" s="313"/>
-      <c r="K150" s="331"/>
-      <c r="L150" s="313"/>
-      <c r="M150" s="313"/>
-      <c r="N150" s="313"/>
-      <c r="O150" s="313"/>
-      <c r="P150" s="313"/>
-      <c r="Q150" s="313"/>
-      <c r="R150" s="331"/>
-      <c r="S150" s="313"/>
-      <c r="T150" s="313"/>
-      <c r="U150" s="313"/>
-      <c r="V150" s="313"/>
-      <c r="W150" s="313"/>
-      <c r="X150" s="313"/>
+      <c r="B150" s="307"/>
+      <c r="C150" s="309"/>
+      <c r="D150" s="311"/>
+      <c r="E150" s="309"/>
+      <c r="F150" s="309"/>
+      <c r="G150" s="309"/>
+      <c r="H150" s="309"/>
+      <c r="I150" s="309"/>
+      <c r="J150" s="309"/>
+      <c r="K150" s="313"/>
+      <c r="L150" s="309"/>
+      <c r="M150" s="309"/>
+      <c r="N150" s="309"/>
+      <c r="O150" s="309"/>
+      <c r="P150" s="309"/>
+      <c r="Q150" s="309"/>
+      <c r="R150" s="313"/>
+      <c r="S150" s="309"/>
+      <c r="T150" s="309"/>
+      <c r="U150" s="309"/>
+      <c r="V150" s="309"/>
+      <c r="W150" s="309"/>
+      <c r="X150" s="309"/>
       <c r="AA150" s="25"/>
       <c r="AB150" s="25"/>
       <c r="AC150" s="99"/>
@@ -29518,7 +29481,7 @@
     </row>
     <row r="151" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="105" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B151" s="100">
         <v>80</v>
@@ -29606,7 +29569,7 @@
     </row>
     <row r="152" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="105" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B152" s="114">
         <f t="shared" ref="B152:X152" si="87">B56*1.4</f>
@@ -29717,7 +29680,7 @@
     </row>
     <row r="153" spans="1:40" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="106" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B153" s="101">
         <v>1</v>
@@ -29805,7 +29768,7 @@
     </row>
     <row r="154" spans="1:40" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="107" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B154" s="109">
         <f>SUM(B152:AF152)</f>
@@ -29852,7 +29815,7 @@
     </row>
     <row r="155" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="108" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B155" s="109">
         <f>B154*12</f>
@@ -29899,6 +29862,152 @@
     </row>
   </sheetData>
   <mergeCells count="170">
+    <mergeCell ref="T65:V65"/>
+    <mergeCell ref="W65:Y65"/>
+    <mergeCell ref="Z65:AB65"/>
+    <mergeCell ref="AC65:AE65"/>
+    <mergeCell ref="AF65:AH65"/>
+    <mergeCell ref="AI65:AK65"/>
+    <mergeCell ref="C58:AO59"/>
+    <mergeCell ref="Z55:AB57"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="AL65:AN65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="T66:V66"/>
+    <mergeCell ref="W66:Y66"/>
+    <mergeCell ref="Z66:AB66"/>
+    <mergeCell ref="AC66:AE66"/>
+    <mergeCell ref="AF66:AH66"/>
+    <mergeCell ref="AI66:AK66"/>
+    <mergeCell ref="AL66:AN66"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="Q53:Q54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="Q65:S65"/>
+    <mergeCell ref="A64:AN64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="T53:T54"/>
+    <mergeCell ref="A52:X52"/>
+    <mergeCell ref="V53:V54"/>
+    <mergeCell ref="U53:U54"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="W53:W54"/>
+    <mergeCell ref="X53:X54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="R53:R54"/>
+    <mergeCell ref="S53:S54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="AI17:AK17"/>
+    <mergeCell ref="AF17:AH17"/>
+    <mergeCell ref="AC17:AE17"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A15:AN15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="AL16:AN16"/>
+    <mergeCell ref="AL17:AN17"/>
+    <mergeCell ref="AI16:AK16"/>
+    <mergeCell ref="AF16:AH16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="A101:X101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="G102:G103"/>
+    <mergeCell ref="H102:H103"/>
+    <mergeCell ref="I102:I103"/>
+    <mergeCell ref="J102:J103"/>
+    <mergeCell ref="K102:K103"/>
+    <mergeCell ref="L102:L103"/>
+    <mergeCell ref="M102:M103"/>
+    <mergeCell ref="N102:N103"/>
+    <mergeCell ref="O102:O103"/>
+    <mergeCell ref="P102:P103"/>
+    <mergeCell ref="V102:V103"/>
+    <mergeCell ref="W102:W103"/>
+    <mergeCell ref="X102:X103"/>
+    <mergeCell ref="Q102:Q103"/>
+    <mergeCell ref="R102:R103"/>
+    <mergeCell ref="S102:S103"/>
+    <mergeCell ref="T102:T103"/>
+    <mergeCell ref="U102:U103"/>
+    <mergeCell ref="A112:AN112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="H113:J113"/>
+    <mergeCell ref="K113:M113"/>
+    <mergeCell ref="N113:P113"/>
+    <mergeCell ref="Q113:S113"/>
+    <mergeCell ref="T113:V113"/>
+    <mergeCell ref="W113:Y113"/>
+    <mergeCell ref="Z113:AB113"/>
+    <mergeCell ref="AC113:AE113"/>
+    <mergeCell ref="AL114:AN114"/>
+    <mergeCell ref="R149:R150"/>
+    <mergeCell ref="S149:S150"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="AF113:AH113"/>
+    <mergeCell ref="AI113:AK113"/>
+    <mergeCell ref="AL113:AN113"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:G114"/>
+    <mergeCell ref="H114:J114"/>
+    <mergeCell ref="K114:M114"/>
+    <mergeCell ref="N114:P114"/>
+    <mergeCell ref="Q114:S114"/>
+    <mergeCell ref="T114:V114"/>
+    <mergeCell ref="W114:Y114"/>
+    <mergeCell ref="Z114:AB114"/>
+    <mergeCell ref="AC114:AE114"/>
+    <mergeCell ref="AF114:AH114"/>
+    <mergeCell ref="AI114:AK114"/>
     <mergeCell ref="F6:I7"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="A148:X148"/>
@@ -29923,152 +30032,6 @@
     <mergeCell ref="W149:W150"/>
     <mergeCell ref="X149:X150"/>
     <mergeCell ref="Q149:Q150"/>
-    <mergeCell ref="R149:R150"/>
-    <mergeCell ref="S149:S150"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="AF113:AH113"/>
-    <mergeCell ref="AI113:AK113"/>
-    <mergeCell ref="AL113:AN113"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:G114"/>
-    <mergeCell ref="H114:J114"/>
-    <mergeCell ref="K114:M114"/>
-    <mergeCell ref="N114:P114"/>
-    <mergeCell ref="Q114:S114"/>
-    <mergeCell ref="T114:V114"/>
-    <mergeCell ref="W114:Y114"/>
-    <mergeCell ref="Z114:AB114"/>
-    <mergeCell ref="AC114:AE114"/>
-    <mergeCell ref="AF114:AH114"/>
-    <mergeCell ref="AI114:AK114"/>
-    <mergeCell ref="A112:AN112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="E113:G113"/>
-    <mergeCell ref="H113:J113"/>
-    <mergeCell ref="K113:M113"/>
-    <mergeCell ref="N113:P113"/>
-    <mergeCell ref="Q113:S113"/>
-    <mergeCell ref="T113:V113"/>
-    <mergeCell ref="W113:Y113"/>
-    <mergeCell ref="Z113:AB113"/>
-    <mergeCell ref="AC113:AE113"/>
-    <mergeCell ref="AL114:AN114"/>
-    <mergeCell ref="A101:X101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="G102:G103"/>
-    <mergeCell ref="H102:H103"/>
-    <mergeCell ref="I102:I103"/>
-    <mergeCell ref="J102:J103"/>
-    <mergeCell ref="K102:K103"/>
-    <mergeCell ref="L102:L103"/>
-    <mergeCell ref="M102:M103"/>
-    <mergeCell ref="N102:N103"/>
-    <mergeCell ref="O102:O103"/>
-    <mergeCell ref="P102:P103"/>
-    <mergeCell ref="V102:V103"/>
-    <mergeCell ref="W102:W103"/>
-    <mergeCell ref="X102:X103"/>
-    <mergeCell ref="Q102:Q103"/>
-    <mergeCell ref="R102:R103"/>
-    <mergeCell ref="S102:S103"/>
-    <mergeCell ref="T102:T103"/>
-    <mergeCell ref="U102:U103"/>
-    <mergeCell ref="AI17:AK17"/>
-    <mergeCell ref="AF17:AH17"/>
-    <mergeCell ref="AC17:AE17"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A15:AN15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="AL16:AN16"/>
-    <mergeCell ref="AL17:AN17"/>
-    <mergeCell ref="AI16:AK16"/>
-    <mergeCell ref="AF16:AH16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="Z16:AB16"/>
-    <mergeCell ref="T53:T54"/>
-    <mergeCell ref="A52:X52"/>
-    <mergeCell ref="V53:V54"/>
-    <mergeCell ref="U53:U54"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="W53:W54"/>
-    <mergeCell ref="X53:X54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="R53:R54"/>
-    <mergeCell ref="S53:S54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="Q53:Q54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="K65:M65"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="Q65:S65"/>
-    <mergeCell ref="T65:V65"/>
-    <mergeCell ref="W65:Y65"/>
-    <mergeCell ref="Z65:AB65"/>
-    <mergeCell ref="AC65:AE65"/>
-    <mergeCell ref="AF65:AH65"/>
-    <mergeCell ref="AI65:AK65"/>
-    <mergeCell ref="C58:AO59"/>
-    <mergeCell ref="Z55:AB57"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="AL65:AN65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="T66:V66"/>
-    <mergeCell ref="W66:Y66"/>
-    <mergeCell ref="Z66:AB66"/>
-    <mergeCell ref="AC66:AE66"/>
-    <mergeCell ref="AF66:AH66"/>
-    <mergeCell ref="AI66:AK66"/>
-    <mergeCell ref="AL66:AN66"/>
-    <mergeCell ref="A64:AN64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:J65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -30077,7 +30040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
@@ -30127,11 +30090,11 @@
     </row>
     <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:24" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="303" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="304"/>
-      <c r="D7" s="306"/>
+      <c r="B7" s="327" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="328"/>
+      <c r="D7" s="330"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" s="173">
@@ -30174,30 +30137,30 @@
     </row>
     <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:24" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="333" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="334"/>
-      <c r="D15" s="334"/>
-      <c r="E15" s="335"/>
+      <c r="B15" s="342" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="343"/>
+      <c r="D15" s="343"/>
+      <c r="E15" s="344"/>
     </row>
     <row r="16" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="167" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" s="168" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" s="168" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16" s="169" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C17" s="32">
         <f>'Proy. ventas'!D19</f>
@@ -30214,7 +30177,7 @@
     </row>
     <row r="18" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="164" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C18" s="165">
         <f>'Proy. ventas'!D20</f>
@@ -30231,7 +30194,7 @@
     </row>
     <row r="19" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C19" s="35">
         <f>'Proy. ventas'!D21</f>
@@ -30248,7 +30211,7 @@
     </row>
     <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="170" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" s="171">
         <f>SUM(C17:C19)</f>
@@ -30275,7 +30238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -30323,16 +30286,16 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="303" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="304"/>
-      <c r="E3" s="306"/>
-      <c r="G3" s="303" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="304"/>
-      <c r="I3" s="306"/>
+      <c r="C3" s="327" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="328"/>
+      <c r="E3" s="330"/>
+      <c r="G3" s="327" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="328"/>
+      <c r="I3" s="330"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C4" s="216">
@@ -30464,19 +30427,19 @@
       <c r="O12"/>
     </row>
     <row r="13" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A13" s="336" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="337"/>
-      <c r="C13" s="337"/>
-      <c r="D13" s="337"/>
-      <c r="E13" s="337"/>
-      <c r="F13" s="337"/>
-      <c r="G13" s="337"/>
-      <c r="H13" s="337"/>
-      <c r="I13" s="337"/>
-      <c r="J13" s="337"/>
-      <c r="K13" s="338"/>
+      <c r="A13" s="348" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="349"/>
+      <c r="C13" s="349"/>
+      <c r="D13" s="349"/>
+      <c r="E13" s="349"/>
+      <c r="F13" s="349"/>
+      <c r="G13" s="349"/>
+      <c r="H13" s="349"/>
+      <c r="I13" s="349"/>
+      <c r="J13" s="349"/>
+      <c r="K13" s="350"/>
       <c r="L13" s="218"/>
       <c r="M13" s="218"/>
       <c r="N13" s="218"/>
@@ -30484,20 +30447,20 @@
     </row>
     <row r="14" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A14" s="219" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="339" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="340"/>
-      <c r="D14" s="340"/>
-      <c r="E14" s="340"/>
-      <c r="F14" s="340"/>
-      <c r="G14" s="340"/>
-      <c r="H14" s="340"/>
-      <c r="I14" s="340"/>
-      <c r="J14" s="340"/>
-      <c r="K14" s="340"/>
+        <v>46</v>
+      </c>
+      <c r="B14" s="351" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="352"/>
+      <c r="D14" s="352"/>
+      <c r="E14" s="352"/>
+      <c r="F14" s="352"/>
+      <c r="G14" s="352"/>
+      <c r="H14" s="352"/>
+      <c r="I14" s="352"/>
+      <c r="J14" s="352"/>
+      <c r="K14" s="352"/>
       <c r="L14" s="218"/>
       <c r="M14" s="218"/>
       <c r="N14" s="218"/>
@@ -30505,20 +30468,20 @@
     </row>
     <row r="15" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A15" s="219" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="341" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="342"/>
-      <c r="D15" s="342"/>
-      <c r="E15" s="342"/>
-      <c r="F15" s="342"/>
-      <c r="G15" s="342"/>
-      <c r="H15" s="342"/>
-      <c r="I15" s="342"/>
-      <c r="J15" s="342"/>
-      <c r="K15" s="343"/>
+        <v>100</v>
+      </c>
+      <c r="B15" s="353" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="354"/>
+      <c r="D15" s="354"/>
+      <c r="E15" s="354"/>
+      <c r="F15" s="354"/>
+      <c r="G15" s="354"/>
+      <c r="H15" s="354"/>
+      <c r="I15" s="354"/>
+      <c r="J15" s="354"/>
+      <c r="K15" s="355"/>
       <c r="L15" s="218"/>
       <c r="M15" s="218"/>
       <c r="N15" s="218"/>
@@ -30526,20 +30489,20 @@
     </row>
     <row r="16" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A16" s="219" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="339" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="340"/>
-      <c r="D16" s="340"/>
-      <c r="E16" s="340"/>
-      <c r="F16" s="340"/>
-      <c r="G16" s="340"/>
-      <c r="H16" s="340"/>
-      <c r="I16" s="340"/>
-      <c r="J16" s="340"/>
-      <c r="K16" s="340"/>
+        <v>47</v>
+      </c>
+      <c r="B16" s="351" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="352"/>
+      <c r="D16" s="352"/>
+      <c r="E16" s="352"/>
+      <c r="F16" s="352"/>
+      <c r="G16" s="352"/>
+      <c r="H16" s="352"/>
+      <c r="I16" s="352"/>
+      <c r="J16" s="352"/>
+      <c r="K16" s="352"/>
       <c r="L16" s="218"/>
       <c r="M16" s="218"/>
       <c r="N16" s="218"/>
@@ -30547,20 +30510,20 @@
     </row>
     <row r="17" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A17" s="219" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="344" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="342"/>
-      <c r="D17" s="342"/>
-      <c r="E17" s="342"/>
-      <c r="F17" s="342"/>
-      <c r="G17" s="342"/>
-      <c r="H17" s="342"/>
-      <c r="I17" s="342"/>
-      <c r="J17" s="342"/>
-      <c r="K17" s="343"/>
+        <v>102</v>
+      </c>
+      <c r="B17" s="356" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="354"/>
+      <c r="D17" s="354"/>
+      <c r="E17" s="354"/>
+      <c r="F17" s="354"/>
+      <c r="G17" s="354"/>
+      <c r="H17" s="354"/>
+      <c r="I17" s="354"/>
+      <c r="J17" s="354"/>
+      <c r="K17" s="355"/>
       <c r="L17" s="218"/>
       <c r="M17" s="218"/>
       <c r="N17" s="218"/>
@@ -30619,7 +30582,7 @@
     </row>
     <row r="21" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="345" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B21" s="346"/>
       <c r="C21" s="346"/>
@@ -30638,43 +30601,43 @@
     </row>
     <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="220" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" s="232" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="233" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="233" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="233" t="s">
+      <c r="E22" s="233" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="233" t="s">
+      <c r="F22" s="233" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="233" t="s">
+      <c r="G22" s="233" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="233" t="s">
+      <c r="H22" s="233" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="233" t="s">
+      <c r="I22" s="233" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="233" t="s">
+      <c r="J22" s="233" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="233" t="s">
+      <c r="K22" s="233" t="s">
         <v>25</v>
       </c>
-      <c r="J22" s="233" t="s">
+      <c r="L22" s="233" t="s">
         <v>26</v>
       </c>
-      <c r="K22" s="233" t="s">
+      <c r="M22" s="233" t="s">
         <v>27</v>
-      </c>
-      <c r="L22" s="233" t="s">
-        <v>28</v>
-      </c>
-      <c r="M22" s="233" t="s">
-        <v>29</v>
       </c>
       <c r="N22" s="234" t="s">
         <v>7</v>
@@ -30683,7 +30646,7 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="220" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" s="221">
         <v>377280.3</v>
@@ -30731,7 +30694,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="220" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B24" s="221">
         <v>20000</v>
@@ -30779,7 +30742,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="220" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B25" s="221">
         <v>15000</v>
@@ -30827,7 +30790,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="220" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B26" s="221">
         <v>1400</v>
@@ -30875,7 +30838,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="220" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B27" s="225">
         <v>0</v>
@@ -30923,7 +30886,7 @@
     </row>
     <row r="28" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="220" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B28" s="231">
         <v>6452</v>
@@ -31097,7 +31060,7 @@
     </row>
     <row r="34" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="345" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B34" s="346"/>
       <c r="C34" s="346"/>
@@ -31116,43 +31079,43 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="220" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B35" s="232" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="233" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="233" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="233" t="s">
+      <c r="E35" s="233" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="233" t="s">
+      <c r="F35" s="233" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="233" t="s">
+      <c r="G35" s="233" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="233" t="s">
+      <c r="H35" s="233" t="s">
         <v>22</v>
       </c>
-      <c r="G35" s="233" t="s">
+      <c r="I35" s="233" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="233" t="s">
+      <c r="J35" s="233" t="s">
         <v>24</v>
       </c>
-      <c r="I35" s="233" t="s">
+      <c r="K35" s="233" t="s">
         <v>25</v>
       </c>
-      <c r="J35" s="233" t="s">
+      <c r="L35" s="233" t="s">
         <v>26</v>
       </c>
-      <c r="K35" s="233" t="s">
+      <c r="M35" s="233" t="s">
         <v>27</v>
-      </c>
-      <c r="L35" s="233" t="s">
-        <v>28</v>
-      </c>
-      <c r="M35" s="233" t="s">
-        <v>29</v>
       </c>
       <c r="N35" s="234" t="s">
         <v>7</v>
@@ -31161,7 +31124,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="220" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B36" s="221">
         <f t="shared" ref="B36:M36" si="2">B23*1.1</f>
@@ -31216,7 +31179,7 @@
     </row>
     <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="220" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B37" s="221">
         <f t="shared" ref="B37:C41" si="3">B24*1.1</f>
@@ -31271,7 +31234,7 @@
     </row>
     <row r="38" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="220" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38" s="221">
         <f t="shared" si="3"/>
@@ -31326,7 +31289,7 @@
     </row>
     <row r="39" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="220" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B39" s="221">
         <f t="shared" si="3"/>
@@ -31381,7 +31344,7 @@
     </row>
     <row r="40" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="220" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B40" s="221">
         <f t="shared" si="3"/>
@@ -31436,7 +31399,7 @@
     </row>
     <row r="41" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="220" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B41" s="221">
         <f t="shared" si="3"/>
@@ -31634,7 +31597,7 @@
     </row>
     <row r="48" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A48" s="345" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B48" s="346"/>
       <c r="C48" s="346"/>
@@ -31653,43 +31616,43 @@
     </row>
     <row r="49" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="228" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B49" s="235" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="233" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="233" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="233" t="s">
+      <c r="E49" s="233" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="233" t="s">
+      <c r="F49" s="233" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="233" t="s">
+      <c r="G49" s="233" t="s">
         <v>21</v>
       </c>
-      <c r="F49" s="233" t="s">
+      <c r="H49" s="233" t="s">
         <v>22</v>
       </c>
-      <c r="G49" s="233" t="s">
+      <c r="I49" s="233" t="s">
         <v>23</v>
       </c>
-      <c r="H49" s="233" t="s">
+      <c r="J49" s="233" t="s">
         <v>24</v>
       </c>
-      <c r="I49" s="233" t="s">
+      <c r="K49" s="233" t="s">
         <v>25</v>
       </c>
-      <c r="J49" s="233" t="s">
+      <c r="L49" s="233" t="s">
         <v>26</v>
       </c>
-      <c r="K49" s="233" t="s">
+      <c r="M49" s="233" t="s">
         <v>27</v>
-      </c>
-      <c r="L49" s="233" t="s">
-        <v>28</v>
-      </c>
-      <c r="M49" s="233" t="s">
-        <v>29</v>
       </c>
       <c r="N49" s="234" t="s">
         <v>7</v>
@@ -31698,7 +31661,7 @@
     </row>
     <row r="50" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="220" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B50" s="221">
         <f>J36*1.05</f>
@@ -31753,7 +31716,7 @@
     </row>
     <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="220" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B51" s="221">
         <f t="shared" ref="B51:D55" si="15">J37*1.05</f>
@@ -31808,7 +31771,7 @@
     </row>
     <row r="52" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="220" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B52" s="221">
         <f t="shared" si="15"/>
@@ -31863,7 +31826,7 @@
     </row>
     <row r="53" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="220" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B53" s="221">
         <f t="shared" si="15"/>
@@ -31918,7 +31881,7 @@
     </row>
     <row r="54" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="220" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B54" s="221">
         <f t="shared" si="15"/>
@@ -31973,7 +31936,7 @@
     </row>
     <row r="55" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="220" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B55" s="221">
         <f t="shared" si="15"/>
@@ -32166,10 +32129,10 @@
     <mergeCell ref="B17:K17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
-    <hyperlink ref="B15" r:id="rId2"/>
-    <hyperlink ref="B16" r:id="rId3"/>
-    <hyperlink ref="B17" r:id="rId4"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="B16" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="B17" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -32178,7 +32141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AF40"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -32259,17 +32222,17 @@
     </row>
     <row r="3" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="348" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="349"/>
-      <c r="D4" s="350"/>
+      <c r="B4" s="360" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="361"/>
+      <c r="D4" s="362"/>
       <c r="E4" s="14"/>
-      <c r="H4" s="348" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="349"/>
-      <c r="J4" s="350"/>
+      <c r="H4" s="360" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="361"/>
+      <c r="J4" s="362"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B5" s="76">
@@ -32336,111 +32299,111 @@
     </row>
     <row r="8" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:32" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A13" s="351" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="352"/>
-      <c r="C13" s="352"/>
-      <c r="D13" s="352"/>
-      <c r="E13" s="352"/>
-      <c r="F13" s="352"/>
-      <c r="G13" s="352"/>
-      <c r="H13" s="352"/>
-      <c r="I13" s="352"/>
-      <c r="J13" s="352"/>
-      <c r="K13" s="353"/>
+      <c r="A13" s="363" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="364"/>
+      <c r="C13" s="364"/>
+      <c r="D13" s="364"/>
+      <c r="E13" s="364"/>
+      <c r="F13" s="364"/>
+      <c r="G13" s="364"/>
+      <c r="H13" s="364"/>
+      <c r="I13" s="364"/>
+      <c r="J13" s="364"/>
+      <c r="K13" s="365"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="207" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="366" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="354" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="355"/>
-      <c r="D14" s="355"/>
-      <c r="E14" s="355"/>
-      <c r="F14" s="355"/>
-      <c r="G14" s="355"/>
-      <c r="H14" s="355"/>
-      <c r="I14" s="355"/>
-      <c r="J14" s="355"/>
-      <c r="K14" s="355"/>
+      <c r="C14" s="367"/>
+      <c r="D14" s="367"/>
+      <c r="E14" s="367"/>
+      <c r="F14" s="367"/>
+      <c r="G14" s="367"/>
+      <c r="H14" s="367"/>
+      <c r="I14" s="367"/>
+      <c r="J14" s="367"/>
+      <c r="K14" s="367"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="207" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="356" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="357"/>
-      <c r="D15" s="357"/>
-      <c r="E15" s="357"/>
-      <c r="F15" s="357"/>
-      <c r="G15" s="357"/>
-      <c r="H15" s="357"/>
-      <c r="I15" s="357"/>
-      <c r="J15" s="357"/>
-      <c r="K15" s="358"/>
+        <v>110</v>
+      </c>
+      <c r="B15" s="368" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="369"/>
+      <c r="D15" s="369"/>
+      <c r="E15" s="369"/>
+      <c r="F15" s="369"/>
+      <c r="G15" s="369"/>
+      <c r="H15" s="369"/>
+      <c r="I15" s="369"/>
+      <c r="J15" s="369"/>
+      <c r="K15" s="370"/>
     </row>
     <row r="19" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="359" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="360"/>
-      <c r="C19" s="360"/>
-      <c r="D19" s="360"/>
-      <c r="E19" s="360"/>
-      <c r="F19" s="360"/>
-      <c r="G19" s="360"/>
-      <c r="H19" s="360"/>
-      <c r="I19" s="360"/>
-      <c r="J19" s="360"/>
-      <c r="K19" s="360"/>
-      <c r="L19" s="360"/>
-      <c r="M19" s="360"/>
-      <c r="N19" s="361"/>
+      <c r="A19" s="357" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="358"/>
+      <c r="C19" s="358"/>
+      <c r="D19" s="358"/>
+      <c r="E19" s="358"/>
+      <c r="F19" s="358"/>
+      <c r="G19" s="358"/>
+      <c r="H19" s="358"/>
+      <c r="I19" s="358"/>
+      <c r="J19" s="358"/>
+      <c r="K19" s="358"/>
+      <c r="L19" s="358"/>
+      <c r="M19" s="358"/>
+      <c r="N19" s="359"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="208" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" s="209" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="210" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="210" t="s">
+      <c r="E20" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="210" t="s">
+      <c r="F20" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="210" t="s">
+      <c r="G20" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="210" t="s">
+      <c r="H20" s="210" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="210" t="s">
+      <c r="I20" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="210" t="s">
+      <c r="J20" s="210" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="210" t="s">
+      <c r="K20" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="210" t="s">
+      <c r="L20" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="K20" s="210" t="s">
+      <c r="M20" s="210" t="s">
         <v>27</v>
-      </c>
-      <c r="L20" s="210" t="s">
-        <v>28</v>
-      </c>
-      <c r="M20" s="210" t="s">
-        <v>29</v>
       </c>
       <c r="N20" s="211" t="s">
         <v>7</v>
@@ -32448,7 +32411,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="208" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B21" s="212">
         <v>15200</v>
@@ -32490,7 +32453,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="208" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B22" s="212">
         <v>4019.03</v>
@@ -32588,62 +32551,62 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="359" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="360"/>
-      <c r="C28" s="360"/>
-      <c r="D28" s="360"/>
-      <c r="E28" s="360"/>
-      <c r="F28" s="360"/>
-      <c r="G28" s="360"/>
-      <c r="H28" s="360"/>
-      <c r="I28" s="360"/>
-      <c r="J28" s="360"/>
-      <c r="K28" s="360"/>
-      <c r="L28" s="360"/>
-      <c r="M28" s="360"/>
-      <c r="N28" s="361"/>
+      <c r="A28" s="357" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="358"/>
+      <c r="C28" s="358"/>
+      <c r="D28" s="358"/>
+      <c r="E28" s="358"/>
+      <c r="F28" s="358"/>
+      <c r="G28" s="358"/>
+      <c r="H28" s="358"/>
+      <c r="I28" s="358"/>
+      <c r="J28" s="358"/>
+      <c r="K28" s="358"/>
+      <c r="L28" s="358"/>
+      <c r="M28" s="358"/>
+      <c r="N28" s="359"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="208" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B29" s="209" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="210" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="210" t="s">
+      <c r="E29" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="210" t="s">
+      <c r="F29" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="210" t="s">
+      <c r="G29" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="210" t="s">
+      <c r="H29" s="210" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="210" t="s">
+      <c r="I29" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="210" t="s">
+      <c r="J29" s="210" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="210" t="s">
+      <c r="K29" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="210" t="s">
+      <c r="L29" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="K29" s="210" t="s">
+      <c r="M29" s="210" t="s">
         <v>27</v>
-      </c>
-      <c r="L29" s="210" t="s">
-        <v>28</v>
-      </c>
-      <c r="M29" s="210" t="s">
-        <v>29</v>
       </c>
       <c r="N29" s="211" t="s">
         <v>7</v>
@@ -32651,7 +32614,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="208" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B30" s="212">
         <f>B21*1.15</f>
@@ -32705,7 +32668,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="208" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B31" s="212">
         <v>3215.85</v>
@@ -32803,62 +32766,62 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="359" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" s="360"/>
-      <c r="C36" s="360"/>
-      <c r="D36" s="360"/>
-      <c r="E36" s="360"/>
-      <c r="F36" s="360"/>
-      <c r="G36" s="360"/>
-      <c r="H36" s="360"/>
-      <c r="I36" s="360"/>
-      <c r="J36" s="360"/>
-      <c r="K36" s="360"/>
-      <c r="L36" s="360"/>
-      <c r="M36" s="360"/>
-      <c r="N36" s="361"/>
+      <c r="A36" s="357" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="358"/>
+      <c r="C36" s="358"/>
+      <c r="D36" s="358"/>
+      <c r="E36" s="358"/>
+      <c r="F36" s="358"/>
+      <c r="G36" s="358"/>
+      <c r="H36" s="358"/>
+      <c r="I36" s="358"/>
+      <c r="J36" s="358"/>
+      <c r="K36" s="358"/>
+      <c r="L36" s="358"/>
+      <c r="M36" s="358"/>
+      <c r="N36" s="359"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="208" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B37" s="209" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="210" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="210" t="s">
+      <c r="E37" s="210" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="210" t="s">
+      <c r="F37" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="210" t="s">
+      <c r="G37" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="210" t="s">
+      <c r="H37" s="210" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="210" t="s">
+      <c r="I37" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="H37" s="210" t="s">
+      <c r="J37" s="210" t="s">
         <v>24</v>
       </c>
-      <c r="I37" s="210" t="s">
+      <c r="K37" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="J37" s="210" t="s">
+      <c r="L37" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="K37" s="210" t="s">
+      <c r="M37" s="210" t="s">
         <v>27</v>
-      </c>
-      <c r="L37" s="210" t="s">
-        <v>28</v>
-      </c>
-      <c r="M37" s="210" t="s">
-        <v>29</v>
       </c>
       <c r="N37" s="211" t="s">
         <v>7</v>
@@ -32866,7 +32829,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="208" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B38" s="212">
         <f>B30*1.15</f>
@@ -32920,7 +32883,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="208" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B39" s="212">
         <v>2409.12</v>
@@ -33029,8 +32992,8 @@
     <mergeCell ref="B15:K15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" location="/addService"/>
-    <hyperlink ref="B15" r:id="rId2" location="commercial?billing=yearly"/>
+    <hyperlink ref="B14" r:id="rId1" location="/addService" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="B15" r:id="rId2" location="commercial?billing=yearly" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
